--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471783.7774819043</v>
+        <v>467187.1276255837</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6985646.213848257</v>
+        <v>6985646.213848262</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5440225.064893404</v>
+        <v>5440225.064893405</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>111.1167415451696</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>102.0362430603697</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>41.34546638575321</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>162.6197388665694</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
         <v>277.3402845023203</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>99.54098133534661</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>44.37059915351917</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>181.7846096219842</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>227.7589956874141</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>48.00916889228458</v>
       </c>
       <c r="G17" t="n">
-        <v>220.9310098516219</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>39.23971820733425</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>215.8806827417343</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>117.0651669032728</v>
+        <v>84.51034755955946</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2241,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>114.3902684237973</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>26.29460830852497</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>266.5995069532995</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>375.6830001345106</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H24" t="n">
-        <v>41.28176946329209</v>
+        <v>41.28176946329211</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>23.56197597485446</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5908699634609</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.4360114046202</v>
       </c>
       <c r="I25" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.445867145127828</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.6181441030213</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V25" t="n">
-        <v>33.52695001820744</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2557,19 +2557,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>82.07609706363007</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>227.0913769251529</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.34346969091203</v>
+        <v>52.34346969091204</v>
       </c>
       <c r="T26" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H27" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2730,10 +2730,10 @@
         <v>163.5908699634609</v>
       </c>
       <c r="H28" t="n">
-        <v>133.4360114046202</v>
+        <v>85.46298843135925</v>
       </c>
       <c r="I28" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.445867145127828</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T28" t="n">
         <v>236.6181441030213</v>
@@ -2775,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>140.491773883276</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>142.2393940346749</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2809,7 +2809,7 @@
         <v>398.0584736956206</v>
       </c>
       <c r="H29" t="n">
-        <v>266.0306092203222</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.34346969091203</v>
+        <v>52.34346969091204</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H30" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>13.06676635555046</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.445867145127828</v>
+        <v>1.445867145127835</v>
       </c>
       <c r="S31" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>236.6181441030213</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>1.823905498683218</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.750732495860694</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.34346969091204</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>313.1382608735911</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3125,7 +3125,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H33" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>128.085334892548</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I34" t="n">
         <v>68.59199721635846</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.86554150180527</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.6181441030213</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.5842605708025</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H35" t="n">
         <v>271.9779897930421</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.34346969091203</v>
+        <v>52.34346969091204</v>
       </c>
       <c r="T35" t="n">
         <v>208.9229806032259</v>
       </c>
       <c r="U35" t="n">
-        <v>230.5574891393202</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H36" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>29.41390439710722</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3441,10 +3441,10 @@
         <v>163.5908699634609</v>
       </c>
       <c r="H37" t="n">
-        <v>133.4360114046202</v>
+        <v>7.008335987204317</v>
       </c>
       <c r="I37" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.445867145127828</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.6181441030213</v>
       </c>
       <c r="U37" t="n">
         <v>277.3278660122306</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>287.6897244839606</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.34346969091203</v>
+        <v>52.34346969091204</v>
       </c>
       <c r="T38" t="n">
         <v>208.9229806032259</v>
@@ -3565,13 +3565,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>287.2817463348755</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H39" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>128.4932156462576</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>29.90451771702115</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H40" t="n">
         <v>133.4360114046202</v>
       </c>
       <c r="I40" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.445867145127835</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.6181441030213</v>
       </c>
       <c r="U40" t="n">
         <v>277.3278660122306</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>33.23435238647</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.34346969091202</v>
+        <v>52.34346969091204</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5923844622858</v>
+        <v>46.64875123557461</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H42" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T42" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U42" t="n">
         <v>182.8417636914805</v>
@@ -3915,10 +3915,10 @@
         <v>163.5908699634609</v>
       </c>
       <c r="H43" t="n">
-        <v>3.269772643812447</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I43" t="n">
-        <v>68.59199721635845</v>
+        <v>22.65313019595824</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.445867145127835</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T43" t="n">
-        <v>236.6181441030213</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3278660122306</v>
@@ -3982,19 +3982,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6063548479244</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.34346969091202</v>
+        <v>37.11260330234337</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H45" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T45" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U45" t="n">
         <v>182.8417636914805</v>
@@ -4146,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>109.5912396464154</v>
       </c>
       <c r="G46" t="n">
         <v>163.5908699634609</v>
@@ -4155,7 +4155,7 @@
         <v>133.4360114046202</v>
       </c>
       <c r="I46" t="n">
-        <v>68.59199721635845</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.445867145127821</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>150.9449052174855</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V46" t="n">
-        <v>270.1450941212296</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1393.959939628084</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="C11" t="n">
-        <v>967.0592096413841</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="D11" t="n">
-        <v>967.0592096413841</v>
+        <v>854.4679979541636</v>
       </c>
       <c r="E11" t="n">
-        <v>967.0592096413841</v>
+        <v>428.4910581020212</v>
       </c>
       <c r="F11" t="n">
-        <v>541.9350278307843</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G11" t="n">
-        <v>139.3430782605839</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149078</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250295</v>
+        <v>366.7061291250302</v>
       </c>
       <c r="L11" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5059,7 +5059,7 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P11" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q11" t="n">
         <v>1740.92751718922</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="W11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="Y11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769163</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>475.930883860742</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F12" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H12" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I12" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J12" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>267.1899758967556</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>443.8288267274046</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>653.1035252084196</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>870.2585070407358</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1319.17606226084</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.905125453736</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>544.3728659164001</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="C13" t="n">
-        <v>372.4003027953161</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D13" t="n">
-        <v>372.4003027953161</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E13" t="n">
-        <v>372.4003027953161</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F13" t="n">
-        <v>200.5385285698765</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G13" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H13" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I13" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J13" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>587.5520906000656</v>
+        <v>912.7564163623083</v>
       </c>
       <c r="M13" t="n">
-        <v>805.2876227700463</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N13" t="n">
-        <v>1254.205177990151</v>
+        <v>1459.727319160032</v>
       </c>
       <c r="O13" t="n">
         <v>1703.122733210255</v>
@@ -5229,22 +5229,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U13" t="n">
-        <v>1533.666602402119</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V13" t="n">
-        <v>1251.955135010148</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W13" t="n">
-        <v>977.1027311826606</v>
+        <v>737.1118970142575</v>
       </c>
       <c r="X13" t="n">
-        <v>734.5388346284657</v>
+        <v>494.5480004600626</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.5388346284657</v>
+        <v>268.2052321498046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1813.808303919614</v>
+        <v>932.1960747648913</v>
       </c>
       <c r="C14" t="n">
-        <v>1713.261858126335</v>
+        <v>932.1960747648913</v>
       </c>
       <c r="D14" t="n">
-        <v>1289.969237311335</v>
+        <v>932.1960747648913</v>
       </c>
       <c r="E14" t="n">
-        <v>863.9922974591925</v>
+        <v>506.2191349127488</v>
       </c>
       <c r="F14" t="n">
-        <v>438.8681156485927</v>
+        <v>81.09495310214902</v>
       </c>
       <c r="G14" t="n">
         <v>36.27616607839228</v>
@@ -5275,19 +5275,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149079</v>
+        <v>184.2963411149077</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303099</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.808303919614</v>
+        <v>1337.533344810001</v>
       </c>
       <c r="Y14" t="n">
-        <v>1813.808303919614</v>
+        <v>932.1960747648913</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>75.26691519968659</v>
+        <v>51.80960935527474</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5526221910818</v>
+        <v>410.0665369506949</v>
       </c>
       <c r="K15" t="n">
-        <v>389.3212477623218</v>
+        <v>535.8351625219349</v>
       </c>
       <c r="L15" t="n">
-        <v>565.9600985929708</v>
+        <v>712.4740133525838</v>
       </c>
       <c r="M15" t="n">
         <v>1014.877653813075</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.2487291994763</v>
+        <v>593.1397458913387</v>
       </c>
       <c r="C16" t="n">
-        <v>36.27616607839228</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="D16" t="n">
-        <v>36.27616607839228</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="E16" t="n">
-        <v>36.27616607839228</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="F16" t="n">
-        <v>36.27616607839228</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="G16" t="n">
-        <v>36.27616607839228</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I16" t="n">
         <v>36.27616607839228</v>
@@ -5439,19 +5439,19 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>665.4738072482864</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M16" t="n">
-        <v>763.5271548259057</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N16" t="n">
-        <v>1212.44471004601</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O16" t="n">
-        <v>1551.749235832356</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P16" t="n">
         <v>1622.490343973492</v>
@@ -5463,25 +5463,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T16" t="n">
-        <v>1417.340083083371</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U16" t="n">
-        <v>1233.719265283387</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V16" t="n">
-        <v>952.0077978914162</v>
+        <v>1292.10600235924</v>
       </c>
       <c r="W16" t="n">
-        <v>677.1553940639292</v>
+        <v>1062.046410755792</v>
       </c>
       <c r="X16" t="n">
-        <v>434.5914975097343</v>
+        <v>819.4825142015967</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.2487291994763</v>
+        <v>593.1397458913387</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1813.808303919614</v>
+        <v>510.7472159227414</v>
       </c>
       <c r="C17" t="n">
-        <v>1813.808303919614</v>
+        <v>510.7472159227414</v>
       </c>
       <c r="D17" t="n">
-        <v>1390.515683104614</v>
+        <v>510.7472159227414</v>
       </c>
       <c r="E17" t="n">
-        <v>964.5387432524718</v>
+        <v>84.77027607059892</v>
       </c>
       <c r="F17" t="n">
-        <v>539.414561441872</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G17" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872656</v>
       </c>
       <c r="J17" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
         <v>1591.77691709091</v>
@@ -5545,22 +5545,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="V17" t="n">
-        <v>1813.808303919614</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="W17" t="n">
-        <v>1813.808303919614</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.808303919614</v>
+        <v>930.5955802142714</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.808303919614</v>
+        <v>930.5955802142714</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>180.0465492813059</v>
+        <v>148.7086316845719</v>
       </c>
       <c r="K18" t="n">
-        <v>628.9641045014104</v>
+        <v>274.4772572558119</v>
       </c>
       <c r="L18" t="n">
-        <v>805.6029553320593</v>
+        <v>451.1161080864608</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.877653813074</v>
+        <v>660.3908065674758</v>
       </c>
       <c r="N18" t="n">
-        <v>1232.032635645391</v>
+        <v>877.5457883997919</v>
       </c>
       <c r="O18" t="n">
-        <v>1427.076302632877</v>
+        <v>1072.589455387279</v>
       </c>
       <c r="P18" t="n">
-        <v>1580.47441747923</v>
+        <v>1225.987570233631</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453736</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>875.1087571773857</v>
+        <v>380.1105034249158</v>
       </c>
       <c r="C19" t="n">
-        <v>703.1361940563016</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="D19" t="n">
-        <v>539.8194211830723</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="E19" t="n">
-        <v>373.6112153359259</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F19" t="n">
-        <v>201.7494411104863</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G19" t="n">
         <v>36.27616607839228</v>
@@ -5673,25 +5673,25 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K19" t="n">
-        <v>463.8388611422041</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L19" t="n">
-        <v>567.620997569823</v>
+        <v>834.8346997140877</v>
       </c>
       <c r="M19" t="n">
-        <v>1016.538552789928</v>
+        <v>1283.752254934192</v>
       </c>
       <c r="N19" t="n">
-        <v>1465.456108010032</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O19" t="n">
-        <v>1551.749235832356</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1774.172224922307</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1534.181390753904</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U19" t="n">
-        <v>1534.181390753904</v>
+        <v>1595.747008220892</v>
       </c>
       <c r="V19" t="n">
-        <v>1534.181390753904</v>
+        <v>1314.035540828921</v>
       </c>
       <c r="W19" t="n">
-        <v>1534.181390753904</v>
+        <v>1039.183137001434</v>
       </c>
       <c r="X19" t="n">
-        <v>1291.617494199709</v>
+        <v>796.6192404472395</v>
       </c>
       <c r="Y19" t="n">
-        <v>1065.274725889451</v>
+        <v>570.2764721369815</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>982.2399407958317</v>
+        <v>947.5247238974908</v>
       </c>
       <c r="C20" t="n">
-        <v>982.2399407958317</v>
+        <v>947.5247238974908</v>
       </c>
       <c r="D20" t="n">
-        <v>982.2399407958317</v>
+        <v>524.2321030824911</v>
       </c>
       <c r="E20" t="n">
-        <v>982.2399407958317</v>
+        <v>524.2321030824911</v>
       </c>
       <c r="F20" t="n">
-        <v>557.1157589852319</v>
+        <v>524.2321030824911</v>
       </c>
       <c r="G20" t="n">
-        <v>154.5238094150315</v>
+        <v>121.6401535122907</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149081</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303104</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5770,34 +5770,34 @@
         <v>1382.739131455148</v>
       </c>
       <c r="P20" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R20" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.808303919614</v>
+        <v>1352.861993942601</v>
       </c>
       <c r="X20" t="n">
-        <v>1402.088305087362</v>
+        <v>1352.861993942601</v>
       </c>
       <c r="Y20" t="n">
-        <v>1402.088305087362</v>
+        <v>947.5247238974908</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968661</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>207.6760385564183</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>333.4446641276584</v>
+        <v>628.9641045014104</v>
       </c>
       <c r="L21" t="n">
-        <v>510.0835149583073</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M21" t="n">
-        <v>719.3582134393224</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N21" t="n">
-        <v>936.5131952716387</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O21" t="n">
-        <v>1131.556862259125</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P21" t="n">
         <v>1580.47441747923</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>846.4639925384733</v>
+        <v>318.0300976061421</v>
       </c>
       <c r="C22" t="n">
-        <v>674.4914294173893</v>
+        <v>318.0300976061421</v>
       </c>
       <c r="D22" t="n">
-        <v>511.17465654416</v>
+        <v>318.0300976061421</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9664506970136</v>
+        <v>151.8218917589956</v>
       </c>
       <c r="F22" t="n">
-        <v>173.104676471574</v>
+        <v>151.8218917589956</v>
       </c>
       <c r="G22" t="n">
-        <v>173.104676471574</v>
+        <v>151.8218917589956</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583899</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>138.6345353799612</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L22" t="n">
-        <v>587.5520906000658</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>805.2876227700467</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1254.205177990151</v>
+        <v>1458.672677674361</v>
       </c>
       <c r="O22" t="n">
-        <v>1703.122733210256</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
-        <v>1773.863841351392</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
@@ -5940,22 +5940,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1787.248093506963</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U22" t="n">
-        <v>1787.248093506963</v>
+        <v>1533.666602402119</v>
       </c>
       <c r="V22" t="n">
-        <v>1505.536626114992</v>
+        <v>1251.955135010148</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.536626114992</v>
+        <v>977.1027311826606</v>
       </c>
       <c r="X22" t="n">
-        <v>1262.972729560797</v>
+        <v>734.5388346284657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1036.629961250539</v>
+        <v>508.1960663182077</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>899.2423356502768</v>
+        <v>1571.521804136491</v>
       </c>
       <c r="C23" t="n">
-        <v>472.3416056635769</v>
+        <v>1571.521804136491</v>
       </c>
       <c r="D23" t="n">
-        <v>49.04898484857715</v>
+        <v>1302.229372870532</v>
       </c>
       <c r="E23" t="n">
-        <v>49.04898484857715</v>
+        <v>876.2524330183898</v>
       </c>
       <c r="F23" t="n">
-        <v>49.04898484857715</v>
+        <v>451.12825120779</v>
       </c>
       <c r="G23" t="n">
-        <v>49.04898484857715</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H23" t="n">
-        <v>49.04898484857715</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I23" t="n">
-        <v>100.233644932626</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J23" t="n">
-        <v>259.0884825884578</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K23" t="n">
-        <v>505.4157145809424</v>
+        <v>505.4157145809426</v>
       </c>
       <c r="L23" t="n">
-        <v>817.0029639133627</v>
+        <v>817.0029639133624</v>
       </c>
       <c r="M23" t="n">
         <v>1168.850098815877</v>
       </c>
       <c r="N23" t="n">
-        <v>1527.140232067529</v>
+        <v>1527.140232067528</v>
       </c>
       <c r="O23" t="n">
         <v>1863.296465032332</v>
       </c>
       <c r="P23" t="n">
-        <v>2144.591619978896</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q23" t="n">
         <v>2348.004495197636</v>
@@ -6019,22 +6019,22 @@
         <v>2452.449242428857</v>
       </c>
       <c r="T23" t="n">
-        <v>2452.449242428857</v>
+        <v>2241.415928688225</v>
       </c>
       <c r="U23" t="n">
-        <v>2452.449242428857</v>
+        <v>1983.241802968744</v>
       </c>
       <c r="V23" t="n">
-        <v>2094.959827555107</v>
+        <v>1983.241802968744</v>
       </c>
       <c r="W23" t="n">
-        <v>1698.568477855454</v>
+        <v>1983.241802968744</v>
       </c>
       <c r="X23" t="n">
-        <v>1319.090699941807</v>
+        <v>1571.521804136491</v>
       </c>
       <c r="Y23" t="n">
-        <v>1319.090699941807</v>
+        <v>1571.521804136491</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>90.74774188220553</v>
       </c>
       <c r="H24" t="n">
-        <v>49.04898484857715</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I24" t="n">
-        <v>73.83891875389249</v>
+        <v>73.83891875389246</v>
       </c>
       <c r="J24" t="n">
-        <v>206.132477377904</v>
+        <v>206.1324773779053</v>
       </c>
       <c r="K24" t="n">
-        <v>375.3146335818846</v>
+        <v>375.3146335818857</v>
       </c>
       <c r="L24" t="n">
-        <v>610.3283339106952</v>
+        <v>610.3283339106961</v>
       </c>
       <c r="M24" t="n">
-        <v>887.7237283922918</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N24" t="n">
         <v>1174.802358348868</v>
       </c>
       <c r="O24" t="n">
-        <v>1433.812502676558</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P24" t="n">
         <v>1638.549354972683</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.720299485617</v>
+        <v>717.6753536780802</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7477363645335</v>
+        <v>545.7027905569962</v>
       </c>
       <c r="D25" t="n">
-        <v>756.4309634913042</v>
+        <v>521.90281482482</v>
       </c>
       <c r="E25" t="n">
-        <v>590.2227576441577</v>
+        <v>355.6946089776735</v>
       </c>
       <c r="F25" t="n">
-        <v>418.3609834187181</v>
+        <v>183.8328347522339</v>
       </c>
       <c r="G25" t="n">
-        <v>253.1176804253233</v>
+        <v>183.8328347522339</v>
       </c>
       <c r="H25" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I25" t="n">
-        <v>49.04898484857715</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J25" t="n">
-        <v>98.85867488164496</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K25" t="n">
-        <v>193.5296927780286</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L25" t="n">
-        <v>695.9245873125053</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M25" t="n">
-        <v>1242.845199414851</v>
+        <v>1568.049525177094</v>
       </c>
       <c r="N25" t="n">
-        <v>1772.368501556013</v>
+        <v>1699.539904476375</v>
       </c>
       <c r="O25" t="n">
-        <v>2268.222596527594</v>
+        <v>2195.393999447956</v>
       </c>
       <c r="P25" t="n">
-        <v>2366.224277374151</v>
+        <v>2393.630972344877</v>
       </c>
       <c r="Q25" t="n">
         <v>2452.449242428857</v>
       </c>
       <c r="R25" t="n">
-        <v>2450.988770565092</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S25" t="n">
-        <v>2298.519169335309</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="T25" t="n">
-        <v>2059.51094296862</v>
+        <v>2213.441016062169</v>
       </c>
       <c r="U25" t="n">
-        <v>2059.51094296862</v>
+        <v>1933.311858474057</v>
       </c>
       <c r="V25" t="n">
-        <v>2025.645336889623</v>
+        <v>1651.600391082086</v>
       </c>
       <c r="W25" t="n">
-        <v>1750.792933062136</v>
+        <v>1376.747987254599</v>
       </c>
       <c r="X25" t="n">
-        <v>1508.229036507941</v>
+        <v>1134.184090700404</v>
       </c>
       <c r="Y25" t="n">
-        <v>1281.886268197683</v>
+        <v>907.8413223901459</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>555.2467542126982</v>
+        <v>1979.728686530345</v>
       </c>
       <c r="C26" t="n">
-        <v>555.2467542126982</v>
+        <v>1552.827956543645</v>
       </c>
       <c r="D26" t="n">
-        <v>131.9541333976985</v>
+        <v>1129.535335728646</v>
       </c>
       <c r="E26" t="n">
-        <v>49.04898484857716</v>
+        <v>703.5583958765031</v>
       </c>
       <c r="F26" t="n">
-        <v>49.04898484857716</v>
+        <v>278.4342140659033</v>
       </c>
       <c r="G26" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H26" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I26" t="n">
-        <v>100.2336449326258</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J26" t="n">
         <v>259.0884825884577</v>
       </c>
       <c r="K26" t="n">
-        <v>505.4157145809427</v>
+        <v>505.4157145809424</v>
       </c>
       <c r="L26" t="n">
-        <v>817.0029639133628</v>
+        <v>817.0029639133627</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N26" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O26" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P26" t="n">
-        <v>2144.591619978896</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q26" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R26" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S26" t="n">
-        <v>2399.577050821876</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T26" t="n">
-        <v>2188.543737081244</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="U26" t="n">
-        <v>2188.543737081244</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="V26" t="n">
-        <v>2188.543737081244</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="W26" t="n">
-        <v>1792.152387381591</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="X26" t="n">
-        <v>1380.432388549338</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="Y26" t="n">
-        <v>975.0951185042283</v>
+        <v>2399.577050821875</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>90.74774188220553</v>
       </c>
       <c r="H27" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I27" t="n">
-        <v>73.8389187538925</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J27" t="n">
-        <v>206.132477377904</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K27" t="n">
-        <v>375.3146335818846</v>
+        <v>358.033333715002</v>
       </c>
       <c r="L27" t="n">
-        <v>610.3283339106952</v>
+        <v>593.0470340438125</v>
       </c>
       <c r="M27" t="n">
-        <v>887.7237283922918</v>
+        <v>870.4424285254091</v>
       </c>
       <c r="N27" t="n">
-        <v>1174.802358348868</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O27" t="n">
-        <v>1433.812502676558</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P27" t="n">
-        <v>1638.549354972683</v>
+        <v>1621.2680551058</v>
       </c>
       <c r="Q27" t="n">
         <v>1767.298649348451</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.720299485617</v>
+        <v>807.7696490024919</v>
       </c>
       <c r="C28" t="n">
-        <v>919.7477363645336</v>
+        <v>635.7970858814078</v>
       </c>
       <c r="D28" t="n">
-        <v>756.4309634913043</v>
+        <v>472.4803130081785</v>
       </c>
       <c r="E28" t="n">
-        <v>590.2227576441578</v>
+        <v>472.4803130081785</v>
       </c>
       <c r="F28" t="n">
-        <v>418.3609834187182</v>
+        <v>300.6185387827389</v>
       </c>
       <c r="G28" t="n">
-        <v>253.1176804253233</v>
+        <v>135.3752357893441</v>
       </c>
       <c r="H28" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I28" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J28" t="n">
-        <v>176.7803915298658</v>
+        <v>126.2653698523708</v>
       </c>
       <c r="K28" t="n">
-        <v>445.951783962021</v>
+        <v>220.9363877487545</v>
       </c>
       <c r="L28" t="n">
-        <v>571.9577849053327</v>
+        <v>723.3312822832312</v>
       </c>
       <c r="M28" t="n">
-        <v>1118.878397007679</v>
+        <v>1270.251894385577</v>
       </c>
       <c r="N28" t="n">
-        <v>1648.40169914884</v>
+        <v>1799.775196526738</v>
       </c>
       <c r="O28" t="n">
-        <v>2144.255794120421</v>
+        <v>2295.629291498319</v>
       </c>
       <c r="P28" t="n">
-        <v>2242.257474966978</v>
+        <v>2393.630972344877</v>
       </c>
       <c r="Q28" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R28" t="n">
-        <v>2450.988770565092</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S28" t="n">
-        <v>2450.988770565092</v>
+        <v>2299.979641199074</v>
       </c>
       <c r="T28" t="n">
-        <v>2211.980544198404</v>
+        <v>2060.971414832386</v>
       </c>
       <c r="U28" t="n">
-        <v>1931.851386610292</v>
+        <v>1780.842257244274</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.139919218321</v>
+        <v>1499.130789852303</v>
       </c>
       <c r="W28" t="n">
-        <v>1650.139919218321</v>
+        <v>1224.278386024816</v>
       </c>
       <c r="X28" t="n">
-        <v>1508.229036507941</v>
+        <v>1224.278386024816</v>
       </c>
       <c r="Y28" t="n">
-        <v>1281.886268197683</v>
+        <v>997.9356177145576</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1994.239780776767</v>
+        <v>1721.554560810864</v>
       </c>
       <c r="C29" t="n">
-        <v>1994.239780776767</v>
+        <v>1294.653830824165</v>
       </c>
       <c r="D29" t="n">
-        <v>1570.947159961767</v>
+        <v>1294.653830824165</v>
       </c>
       <c r="E29" t="n">
-        <v>1144.970220109624</v>
+        <v>1150.977675233584</v>
       </c>
       <c r="F29" t="n">
-        <v>719.8460382990245</v>
+        <v>725.853493422984</v>
       </c>
       <c r="G29" t="n">
-        <v>317.7667719398117</v>
+        <v>323.7742270637712</v>
       </c>
       <c r="H29" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I29" t="n">
         <v>100.2336449326259</v>
       </c>
       <c r="J29" t="n">
-        <v>259.0884825884578</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K29" t="n">
-        <v>505.4157145809429</v>
+        <v>505.4157145809428</v>
       </c>
       <c r="L29" t="n">
-        <v>817.0029639133629</v>
+        <v>817.0029639133627</v>
       </c>
       <c r="M29" t="n">
         <v>1168.850098815877</v>
@@ -6484,31 +6484,31 @@
         <v>2144.591619978896</v>
       </c>
       <c r="Q29" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R29" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S29" t="n">
-        <v>2399.577050821876</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T29" t="n">
-        <v>2399.577050821876</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="U29" t="n">
-        <v>2399.577050821876</v>
+        <v>2141.402925102394</v>
       </c>
       <c r="V29" t="n">
-        <v>2399.577050821876</v>
+        <v>2141.402925102394</v>
       </c>
       <c r="W29" t="n">
-        <v>2399.577050821876</v>
+        <v>2141.402925102394</v>
       </c>
       <c r="X29" t="n">
-        <v>2399.577050821876</v>
+        <v>2141.402925102394</v>
       </c>
       <c r="Y29" t="n">
-        <v>1994.239780776767</v>
+        <v>2141.402925102394</v>
       </c>
     </row>
     <row r="30">
@@ -6536,22 +6536,22 @@
         <v>90.74774188220553</v>
       </c>
       <c r="H30" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I30" t="n">
-        <v>73.8389187538925</v>
+        <v>73.83891875389247</v>
       </c>
       <c r="J30" t="n">
-        <v>206.132477377904</v>
+        <v>206.1324773779045</v>
       </c>
       <c r="K30" t="n">
-        <v>375.3146335818846</v>
+        <v>375.314633581885</v>
       </c>
       <c r="L30" t="n">
-        <v>610.3283339106952</v>
+        <v>610.3283339106955</v>
       </c>
       <c r="M30" t="n">
-        <v>887.7237283922918</v>
+        <v>887.7237283922922</v>
       </c>
       <c r="N30" t="n">
         <v>1174.802358348868</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.7452805845323</v>
+        <v>956.9364495819608</v>
       </c>
       <c r="C31" t="n">
-        <v>391.7727174634483</v>
+        <v>784.9638864608768</v>
       </c>
       <c r="D31" t="n">
-        <v>228.455944590219</v>
+        <v>621.6471135876475</v>
       </c>
       <c r="E31" t="n">
-        <v>62.24773874307257</v>
+        <v>455.438907740501</v>
       </c>
       <c r="F31" t="n">
-        <v>49.04898484857716</v>
+        <v>283.5771335150614</v>
       </c>
       <c r="G31" t="n">
-        <v>49.04898484857716</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="H31" t="n">
-        <v>49.04898484857716</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I31" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J31" t="n">
-        <v>176.7803915298658</v>
+        <v>98.85867488164494</v>
       </c>
       <c r="K31" t="n">
-        <v>271.4514094262495</v>
+        <v>193.5296927780286</v>
       </c>
       <c r="L31" t="n">
-        <v>773.8463039607261</v>
+        <v>695.9245873125053</v>
       </c>
       <c r="M31" t="n">
-        <v>907.2314356002503</v>
+        <v>1242.845199414851</v>
       </c>
       <c r="N31" t="n">
-        <v>1436.754737741412</v>
+        <v>1772.368501556013</v>
       </c>
       <c r="O31" t="n">
-        <v>1932.608832712993</v>
+        <v>2268.222596527594</v>
       </c>
       <c r="P31" t="n">
-        <v>2242.257474966978</v>
+        <v>2393.630972344877</v>
       </c>
       <c r="Q31" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R31" t="n">
-        <v>2450.988770565092</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S31" t="n">
-        <v>2298.519169335309</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="T31" t="n">
-        <v>2059.510942968621</v>
+        <v>2211.980544198403</v>
       </c>
       <c r="U31" t="n">
-        <v>1779.381785380509</v>
+        <v>1931.851386610291</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.670317988538</v>
+        <v>1650.13991921832</v>
       </c>
       <c r="W31" t="n">
-        <v>1222.817914161051</v>
+        <v>1375.287515390833</v>
       </c>
       <c r="X31" t="n">
-        <v>980.2540176068559</v>
+        <v>1373.445186604284</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.9112492965979</v>
+        <v>1147.102418294026</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>899.2423356502768</v>
+        <v>1582.519781944514</v>
       </c>
       <c r="C32" t="n">
-        <v>472.3416056635769</v>
+        <v>1155.619051957814</v>
       </c>
       <c r="D32" t="n">
-        <v>49.04898484857715</v>
+        <v>1155.619051957814</v>
       </c>
       <c r="E32" t="n">
-        <v>49.04898484857715</v>
+        <v>729.6421121056716</v>
       </c>
       <c r="F32" t="n">
-        <v>49.04898484857715</v>
+        <v>725.853493422984</v>
       </c>
       <c r="G32" t="n">
-        <v>49.04898484857715</v>
+        <v>323.7742270637712</v>
       </c>
       <c r="H32" t="n">
-        <v>49.04898484857715</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="I32" t="n">
-        <v>100.2336449326258</v>
+        <v>100.233644932626</v>
       </c>
       <c r="J32" t="n">
-        <v>259.0884825884577</v>
+        <v>259.0884825884579</v>
       </c>
       <c r="K32" t="n">
-        <v>505.4157145809427</v>
+        <v>505.4157145809428</v>
       </c>
       <c r="L32" t="n">
         <v>817.0029639133628</v>
@@ -6715,37 +6715,37 @@
         <v>1527.140232067529</v>
       </c>
       <c r="O32" t="n">
-        <v>1863.296465032332</v>
+        <v>1863.296465032333</v>
       </c>
       <c r="P32" t="n">
         <v>2144.591619978896</v>
       </c>
       <c r="Q32" t="n">
-        <v>2348.004495197636</v>
+        <v>2348.004495197637</v>
       </c>
       <c r="R32" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="S32" t="n">
-        <v>2452.449242428857</v>
+        <v>2399.577050821876</v>
       </c>
       <c r="T32" t="n">
-        <v>2452.449242428857</v>
+        <v>2399.577050821876</v>
       </c>
       <c r="U32" t="n">
-        <v>2452.449242428857</v>
+        <v>2399.577050821876</v>
       </c>
       <c r="V32" t="n">
-        <v>2452.449242428857</v>
+        <v>2399.577050821876</v>
       </c>
       <c r="W32" t="n">
-        <v>2136.147968819169</v>
+        <v>2399.577050821876</v>
       </c>
       <c r="X32" t="n">
-        <v>1724.427969986917</v>
+        <v>1987.857051989623</v>
       </c>
       <c r="Y32" t="n">
-        <v>1319.090699941807</v>
+        <v>1582.519781944514</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>183.592416182982</v>
       </c>
       <c r="G33" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220555</v>
       </c>
       <c r="H33" t="n">
-        <v>49.04898484857715</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="I33" t="n">
-        <v>73.83891875389249</v>
+        <v>97.29622459830432</v>
       </c>
       <c r="J33" t="n">
-        <v>165.3938716666097</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K33" t="n">
-        <v>334.5760278705902</v>
+        <v>358.033333715002</v>
       </c>
       <c r="L33" t="n">
-        <v>569.5897281994008</v>
+        <v>593.0470340438126</v>
       </c>
       <c r="M33" t="n">
-        <v>846.9851226809976</v>
+        <v>870.4424285254092</v>
       </c>
       <c r="N33" t="n">
-        <v>1134.063752637574</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O33" t="n">
-        <v>1393.073896965264</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P33" t="n">
-        <v>1597.810749261389</v>
+        <v>1621.2680551058</v>
       </c>
       <c r="Q33" t="n">
-        <v>1726.560043637157</v>
+        <v>1750.017349481568</v>
       </c>
       <c r="R33" t="n">
         <v>1817.4386691009</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>619.8313723631262</v>
+        <v>717.6753536780811</v>
       </c>
       <c r="C34" t="n">
-        <v>447.8588092420422</v>
+        <v>717.6753536780811</v>
       </c>
       <c r="D34" t="n">
-        <v>284.5420363688129</v>
+        <v>554.3585808048518</v>
       </c>
       <c r="E34" t="n">
-        <v>118.3338305216665</v>
+        <v>554.3585808048518</v>
       </c>
       <c r="F34" t="n">
-        <v>118.3338305216665</v>
+        <v>382.4968065794122</v>
       </c>
       <c r="G34" t="n">
-        <v>118.3338305216665</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="H34" t="n">
         <v>118.3338305216665</v>
       </c>
       <c r="I34" t="n">
-        <v>49.04898484857715</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="J34" t="n">
         <v>98.85867488164496</v>
       </c>
       <c r="K34" t="n">
-        <v>440.8123018920507</v>
+        <v>193.5296927780286</v>
       </c>
       <c r="L34" t="n">
-        <v>566.8183028353624</v>
+        <v>695.9245873125053</v>
       </c>
       <c r="M34" t="n">
-        <v>1113.738914937708</v>
+        <v>1242.845199414851</v>
       </c>
       <c r="N34" t="n">
-        <v>1643.26221707887</v>
+        <v>1772.368501556013</v>
       </c>
       <c r="O34" t="n">
-        <v>2139.116312050451</v>
+        <v>2268.222596527594</v>
       </c>
       <c r="P34" t="n">
-        <v>2242.257474966978</v>
+        <v>2366.224277374151</v>
       </c>
       <c r="Q34" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="R34" t="n">
-        <v>2452.449242428857</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="S34" t="n">
-        <v>2354.605261113903</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="T34" t="n">
-        <v>2115.597034747214</v>
+        <v>2213.44101606217</v>
       </c>
       <c r="U34" t="n">
-        <v>1835.467877159103</v>
+        <v>1933.311858474058</v>
       </c>
       <c r="V34" t="n">
-        <v>1553.756409767132</v>
+        <v>1651.600391082087</v>
       </c>
       <c r="W34" t="n">
-        <v>1278.904005939645</v>
+        <v>1376.7479872546</v>
       </c>
       <c r="X34" t="n">
-        <v>1036.34010938545</v>
+        <v>1134.184090700405</v>
       </c>
       <c r="Y34" t="n">
-        <v>809.9973410751918</v>
+        <v>907.8413223901468</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1598.167969541513</v>
+        <v>725.853493422984</v>
       </c>
       <c r="C35" t="n">
-        <v>1598.167969541513</v>
+        <v>725.853493422984</v>
       </c>
       <c r="D35" t="n">
-        <v>1174.875348726513</v>
+        <v>725.853493422984</v>
       </c>
       <c r="E35" t="n">
-        <v>748.8984088743709</v>
+        <v>725.853493422984</v>
       </c>
       <c r="F35" t="n">
-        <v>323.7742270637712</v>
+        <v>725.853493422984</v>
       </c>
       <c r="G35" t="n">
         <v>323.7742270637712</v>
@@ -6934,22 +6934,22 @@
         <v>49.04898484857716</v>
       </c>
       <c r="I35" t="n">
-        <v>100.2336449326262</v>
+        <v>100.233644932626</v>
       </c>
       <c r="J35" t="n">
-        <v>259.088482588458</v>
+        <v>259.0884825884579</v>
       </c>
       <c r="K35" t="n">
-        <v>505.4157145809432</v>
+        <v>505.4157145809428</v>
       </c>
       <c r="L35" t="n">
-        <v>817.0029639133633</v>
+        <v>817.0029639133628</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N35" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O35" t="n">
         <v>1863.296465032333</v>
@@ -6970,19 +6970,19 @@
         <v>2188.543737081244</v>
       </c>
       <c r="U35" t="n">
-        <v>1955.657384415264</v>
+        <v>1930.369611361763</v>
       </c>
       <c r="V35" t="n">
-        <v>1598.167969541513</v>
+        <v>1930.369611361763</v>
       </c>
       <c r="W35" t="n">
-        <v>1598.167969541513</v>
+        <v>1930.369611361763</v>
       </c>
       <c r="X35" t="n">
-        <v>1598.167969541513</v>
+        <v>1518.64961252951</v>
       </c>
       <c r="Y35" t="n">
-        <v>1598.167969541513</v>
+        <v>1113.312342484401</v>
       </c>
     </row>
     <row r="36">
@@ -7007,13 +7007,13 @@
         <v>183.592416182982</v>
       </c>
       <c r="G36" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220555</v>
       </c>
       <c r="H36" t="n">
         <v>49.04898484857716</v>
       </c>
       <c r="I36" t="n">
-        <v>73.8389187538925</v>
+        <v>73.83891875389249</v>
       </c>
       <c r="J36" t="n">
         <v>165.3938716666097</v>
@@ -7022,10 +7022,10 @@
         <v>334.5760278705902</v>
       </c>
       <c r="L36" t="n">
-        <v>569.5897281994008</v>
+        <v>569.5897281994007</v>
       </c>
       <c r="M36" t="n">
-        <v>846.9851226809976</v>
+        <v>846.9851226809974</v>
       </c>
       <c r="N36" t="n">
         <v>1134.063752637574</v>
@@ -7034,10 +7034,10 @@
         <v>1393.073896965264</v>
       </c>
       <c r="P36" t="n">
-        <v>1597.810749261389</v>
+        <v>1597.810749261388</v>
       </c>
       <c r="Q36" t="n">
-        <v>1726.560043637157</v>
+        <v>1726.560043637156</v>
       </c>
       <c r="R36" t="n">
         <v>1817.4386691009</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>955.2231081810037</v>
+        <v>565.205752448298</v>
       </c>
       <c r="C37" t="n">
-        <v>783.2505450599197</v>
+        <v>393.2331893272139</v>
       </c>
       <c r="D37" t="n">
-        <v>619.9337721866904</v>
+        <v>393.2331893272139</v>
       </c>
       <c r="E37" t="n">
-        <v>590.2227576441578</v>
+        <v>393.2331893272139</v>
       </c>
       <c r="F37" t="n">
-        <v>418.3609834187182</v>
+        <v>221.3714151017744</v>
       </c>
       <c r="G37" t="n">
-        <v>253.1176804253233</v>
+        <v>56.1281121083795</v>
       </c>
       <c r="H37" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="I37" t="n">
         <v>49.04898484857716</v>
       </c>
       <c r="J37" t="n">
-        <v>176.7803915298658</v>
+        <v>98.85867488164496</v>
       </c>
       <c r="K37" t="n">
-        <v>518.7340185402716</v>
+        <v>284.5690767666127</v>
       </c>
       <c r="L37" t="n">
-        <v>1021.128913074748</v>
+        <v>410.5750777099245</v>
       </c>
       <c r="M37" t="n">
-        <v>1568.049525177094</v>
+        <v>957.4956898122704</v>
       </c>
       <c r="N37" t="n">
-        <v>2097.572827318255</v>
+        <v>1487.018991953432</v>
       </c>
       <c r="O37" t="n">
-        <v>2215.724597986633</v>
+        <v>1982.873086925013</v>
       </c>
       <c r="P37" t="n">
-        <v>2313.72627883319</v>
+        <v>2393.630972344878</v>
       </c>
       <c r="Q37" t="n">
         <v>2452.449242428858</v>
       </c>
       <c r="R37" t="n">
-        <v>2450.988770565092</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="S37" t="n">
-        <v>2450.988770565092</v>
+        <v>2299.979641199075</v>
       </c>
       <c r="T37" t="n">
-        <v>2450.988770565092</v>
+        <v>2060.971414832386</v>
       </c>
       <c r="U37" t="n">
-        <v>2170.85961297698</v>
+        <v>1780.842257244275</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.148145585009</v>
+        <v>1499.130789852303</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.295741757522</v>
+        <v>1224.278386024816</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.731845203327</v>
+        <v>981.7144894706215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1145.389076893069</v>
+        <v>755.3717211603636</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>764.7688479561068</v>
+        <v>451.12825120779</v>
       </c>
       <c r="C38" t="n">
-        <v>764.7688479561068</v>
+        <v>451.12825120779</v>
       </c>
       <c r="D38" t="n">
-        <v>764.7688479561068</v>
+        <v>451.12825120779</v>
       </c>
       <c r="E38" t="n">
-        <v>764.7688479561068</v>
+        <v>451.12825120779</v>
       </c>
       <c r="F38" t="n">
-        <v>339.644666145507</v>
+        <v>451.12825120779</v>
       </c>
       <c r="G38" t="n">
         <v>49.04898484857716</v>
@@ -7171,25 +7171,25 @@
         <v>49.04898484857716</v>
       </c>
       <c r="I38" t="n">
-        <v>100.2336449326262</v>
+        <v>100.2336449326258</v>
       </c>
       <c r="J38" t="n">
-        <v>259.088482588458</v>
+        <v>259.0884825884575</v>
       </c>
       <c r="K38" t="n">
-        <v>505.4157145809432</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L38" t="n">
-        <v>817.0029639133633</v>
+        <v>817.0029639133627</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N38" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O38" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P38" t="n">
         <v>2144.591619978896</v>
@@ -7213,13 +7213,13 @@
         <v>1572.880196488013</v>
       </c>
       <c r="W38" t="n">
-        <v>1176.48884678836</v>
+        <v>1572.880196488013</v>
       </c>
       <c r="X38" t="n">
-        <v>764.7688479561068</v>
+        <v>1161.16019765576</v>
       </c>
       <c r="Y38" t="n">
-        <v>764.7688479561068</v>
+        <v>870.97661549932</v>
       </c>
     </row>
     <row r="39">
@@ -7244,13 +7244,13 @@
         <v>183.592416182982</v>
       </c>
       <c r="G39" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220555</v>
       </c>
       <c r="H39" t="n">
         <v>49.04898484857716</v>
       </c>
       <c r="I39" t="n">
-        <v>73.8389187538925</v>
+        <v>73.83891875389249</v>
       </c>
       <c r="J39" t="n">
         <v>165.3938716666097</v>
@@ -7259,10 +7259,10 @@
         <v>334.5760278705902</v>
       </c>
       <c r="L39" t="n">
-        <v>569.5897281994008</v>
+        <v>569.5897281994007</v>
       </c>
       <c r="M39" t="n">
-        <v>846.9851226809976</v>
+        <v>846.9851226809974</v>
       </c>
       <c r="N39" t="n">
         <v>1134.063752637574</v>
@@ -7271,10 +7271,10 @@
         <v>1393.073896965264</v>
       </c>
       <c r="P39" t="n">
-        <v>1597.810749261389</v>
+        <v>1597.810749261388</v>
       </c>
       <c r="Q39" t="n">
-        <v>1726.560043637157</v>
+        <v>1726.560043637156</v>
       </c>
       <c r="R39" t="n">
         <v>1817.4386691009</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.6835800447693</v>
+        <v>980.2540176068559</v>
       </c>
       <c r="C40" t="n">
-        <v>784.7110169236853</v>
+        <v>850.4628906914442</v>
       </c>
       <c r="D40" t="n">
-        <v>621.394244050456</v>
+        <v>687.1461178182149</v>
       </c>
       <c r="E40" t="n">
-        <v>455.1860382033095</v>
+        <v>520.9379119710684</v>
       </c>
       <c r="F40" t="n">
-        <v>283.3242639778699</v>
+        <v>349.0761377456288</v>
       </c>
       <c r="G40" t="n">
-        <v>253.1176804253233</v>
+        <v>183.8328347522339</v>
       </c>
       <c r="H40" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="I40" t="n">
         <v>49.04898484857716</v>
       </c>
       <c r="J40" t="n">
-        <v>98.85867488164497</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K40" t="n">
-        <v>220.9363877487552</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L40" t="n">
-        <v>723.3312822832319</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M40" t="n">
-        <v>1270.251894385578</v>
+        <v>1568.049525177094</v>
       </c>
       <c r="N40" t="n">
-        <v>1799.775196526739</v>
+        <v>2097.572827318255</v>
       </c>
       <c r="O40" t="n">
-        <v>2295.62929149832</v>
+        <v>2215.724597986633</v>
       </c>
       <c r="P40" t="n">
-        <v>2393.630972344878</v>
+        <v>2313.72627883319</v>
       </c>
       <c r="Q40" t="n">
         <v>2452.449242428858</v>
       </c>
       <c r="R40" t="n">
-        <v>2452.449242428858</v>
+        <v>2450.988770565092</v>
       </c>
       <c r="S40" t="n">
-        <v>2452.449242428858</v>
+        <v>2298.519169335309</v>
       </c>
       <c r="T40" t="n">
-        <v>2452.449242428858</v>
+        <v>2059.510942968621</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.320084840746</v>
+        <v>1779.381785380509</v>
       </c>
       <c r="V40" t="n">
-        <v>1890.608617448775</v>
+        <v>1497.670317988538</v>
       </c>
       <c r="W40" t="n">
-        <v>1615.756213621288</v>
+        <v>1222.817914161051</v>
       </c>
       <c r="X40" t="n">
-        <v>1373.192317067093</v>
+        <v>980.2540176068559</v>
       </c>
       <c r="Y40" t="n">
-        <v>1146.849548756835</v>
+        <v>980.2540176068559</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1783.913510228645</v>
+        <v>1324.366517460877</v>
       </c>
       <c r="C41" t="n">
-        <v>1357.012780241945</v>
+        <v>897.4657874741768</v>
       </c>
       <c r="D41" t="n">
-        <v>933.7201594269457</v>
+        <v>474.173166659177</v>
       </c>
       <c r="E41" t="n">
-        <v>507.7432195748032</v>
+        <v>474.173166659177</v>
       </c>
       <c r="F41" t="n">
-        <v>82.61903776420343</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="G41" t="n">
-        <v>82.61903776420343</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="H41" t="n">
         <v>49.04898484857716</v>
       </c>
       <c r="I41" t="n">
-        <v>100.233644932626</v>
+        <v>100.2336449326258</v>
       </c>
       <c r="J41" t="n">
-        <v>259.088482588458</v>
+        <v>259.0884825884575</v>
       </c>
       <c r="K41" t="n">
-        <v>505.4157145809431</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L41" t="n">
-        <v>817.0029639133631</v>
+        <v>817.0029639133627</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N41" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O41" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P41" t="n">
-        <v>2144.591619978897</v>
+        <v>2144.591619978896</v>
       </c>
       <c r="Q41" t="n">
         <v>2348.004495197637</v>
@@ -7438,25 +7438,25 @@
         <v>2452.449242428858</v>
       </c>
       <c r="S41" t="n">
-        <v>2399.577050821877</v>
+        <v>2399.577050821876</v>
       </c>
       <c r="T41" t="n">
-        <v>2399.577050821877</v>
+        <v>2188.543737081244</v>
       </c>
       <c r="U41" t="n">
-        <v>2141.402925102396</v>
+        <v>2141.423786338239</v>
       </c>
       <c r="V41" t="n">
-        <v>1783.913510228645</v>
+        <v>2141.423786338239</v>
       </c>
       <c r="W41" t="n">
-        <v>1783.913510228645</v>
+        <v>2141.423786338239</v>
       </c>
       <c r="X41" t="n">
-        <v>1783.913510228645</v>
+        <v>1729.703787505986</v>
       </c>
       <c r="Y41" t="n">
-        <v>1783.913510228645</v>
+        <v>1324.366517460877</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>49.04898484857716</v>
       </c>
       <c r="I42" t="n">
-        <v>73.83891875389251</v>
+        <v>97.29622459830432</v>
       </c>
       <c r="J42" t="n">
-        <v>206.1324773779036</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K42" t="n">
-        <v>375.3146335818842</v>
+        <v>358.033333715002</v>
       </c>
       <c r="L42" t="n">
-        <v>610.3283339106948</v>
+        <v>593.0470340438126</v>
       </c>
       <c r="M42" t="n">
-        <v>887.7237283922916</v>
+        <v>870.4424285254092</v>
       </c>
       <c r="N42" t="n">
-        <v>1174.802358348868</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O42" t="n">
-        <v>1433.812502676558</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P42" t="n">
-        <v>1638.549354972683</v>
+        <v>1621.2680551058</v>
       </c>
       <c r="Q42" t="n">
-        <v>1767.298649348451</v>
+        <v>1750.017349481568</v>
       </c>
       <c r="R42" t="n">
         <v>1817.4386691009</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>960.2392502322764</v>
+        <v>1045.317403505415</v>
       </c>
       <c r="C43" t="n">
-        <v>788.2666871111924</v>
+        <v>873.3448403843313</v>
       </c>
       <c r="D43" t="n">
-        <v>624.9499142379631</v>
+        <v>710.028067511102</v>
       </c>
       <c r="E43" t="n">
-        <v>458.7417083908166</v>
+        <v>543.8198616639555</v>
       </c>
       <c r="F43" t="n">
-        <v>286.879934165377</v>
+        <v>371.9580874385159</v>
       </c>
       <c r="G43" t="n">
-        <v>121.6366311719821</v>
+        <v>206.714784445121</v>
       </c>
       <c r="H43" t="n">
-        <v>118.3338305216665</v>
+        <v>71.93093454146427</v>
       </c>
       <c r="I43" t="n">
         <v>49.04898484857716</v>
       </c>
       <c r="J43" t="n">
-        <v>176.7803915298659</v>
+        <v>98.85867488164496</v>
       </c>
       <c r="K43" t="n">
-        <v>321.7156636382698</v>
+        <v>193.5296927780286</v>
       </c>
       <c r="L43" t="n">
-        <v>824.1105581727466</v>
+        <v>410.5750777099245</v>
       </c>
       <c r="M43" t="n">
-        <v>957.4956898122707</v>
+        <v>957.4956898122704</v>
       </c>
       <c r="N43" t="n">
         <v>1487.018991953432</v>
@@ -7593,28 +7593,28 @@
         <v>2452.449242428858</v>
       </c>
       <c r="R43" t="n">
-        <v>2452.449242428858</v>
+        <v>2450.988770565092</v>
       </c>
       <c r="S43" t="n">
-        <v>2452.449242428858</v>
+        <v>2298.519169335309</v>
       </c>
       <c r="T43" t="n">
-        <v>2213.44101606217</v>
+        <v>2298.519169335309</v>
       </c>
       <c r="U43" t="n">
-        <v>1933.311858474058</v>
+        <v>2018.390011747197</v>
       </c>
       <c r="V43" t="n">
-        <v>1651.600391082087</v>
+        <v>1736.678544355226</v>
       </c>
       <c r="W43" t="n">
-        <v>1376.7479872546</v>
+        <v>1461.826140527739</v>
       </c>
       <c r="X43" t="n">
-        <v>1376.7479872546</v>
+        <v>1461.826140527739</v>
       </c>
       <c r="Y43" t="n">
-        <v>1150.405218944342</v>
+        <v>1235.483372217481</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1574.391416485237</v>
+        <v>1325.219275502419</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.490686498537</v>
+        <v>898.3185455157193</v>
       </c>
       <c r="D44" t="n">
-        <v>1147.490686498537</v>
+        <v>475.0259247007196</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.490686498537</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="F44" t="n">
-        <v>722.3665046879373</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="G44" t="n">
-        <v>323.7742270637712</v>
+        <v>49.04898484857716</v>
       </c>
       <c r="H44" t="n">
         <v>49.04898484857716</v>
@@ -7651,22 +7651,22 @@
         <v>259.0884825884579</v>
       </c>
       <c r="K44" t="n">
-        <v>505.415714580943</v>
+        <v>505.4157145809428</v>
       </c>
       <c r="L44" t="n">
-        <v>817.0029639133631</v>
+        <v>817.0029639133628</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N44" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O44" t="n">
         <v>1863.296465032333</v>
       </c>
       <c r="P44" t="n">
-        <v>2144.591619978897</v>
+        <v>2144.591619978896</v>
       </c>
       <c r="Q44" t="n">
         <v>2348.004495197637</v>
@@ -7675,25 +7675,25 @@
         <v>2452.449242428858</v>
       </c>
       <c r="S44" t="n">
-        <v>2399.577050821877</v>
+        <v>2414.961764345683</v>
       </c>
       <c r="T44" t="n">
-        <v>2399.577050821877</v>
+        <v>2414.961764345683</v>
       </c>
       <c r="U44" t="n">
-        <v>2399.577050821877</v>
+        <v>2156.787638626202</v>
       </c>
       <c r="V44" t="n">
-        <v>2399.577050821877</v>
+        <v>2156.787638626202</v>
       </c>
       <c r="W44" t="n">
-        <v>2399.577050821877</v>
+        <v>2156.787638626202</v>
       </c>
       <c r="X44" t="n">
-        <v>2399.577050821877</v>
+        <v>1745.067639793949</v>
       </c>
       <c r="Y44" t="n">
-        <v>1994.239780776767</v>
+        <v>1745.067639793949</v>
       </c>
     </row>
     <row r="45">
@@ -7724,19 +7724,19 @@
         <v>49.04898484857716</v>
       </c>
       <c r="I45" t="n">
-        <v>73.83891875389251</v>
+        <v>73.83891875389249</v>
       </c>
       <c r="J45" t="n">
-        <v>165.3938716666098</v>
+        <v>165.3938716666097</v>
       </c>
       <c r="K45" t="n">
-        <v>334.5760278705903</v>
+        <v>334.5760278705902</v>
       </c>
       <c r="L45" t="n">
-        <v>569.589728199401</v>
+        <v>569.5897281994007</v>
       </c>
       <c r="M45" t="n">
-        <v>846.9851226809977</v>
+        <v>846.9851226809974</v>
       </c>
       <c r="N45" t="n">
         <v>1134.063752637574</v>
@@ -7745,10 +7745,10 @@
         <v>1393.073896965264</v>
       </c>
       <c r="P45" t="n">
-        <v>1597.810749261389</v>
+        <v>1597.810749261388</v>
       </c>
       <c r="Q45" t="n">
-        <v>1726.560043637157</v>
+        <v>1726.560043637156</v>
       </c>
       <c r="R45" t="n">
         <v>1817.4386691009</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.720299485617</v>
+        <v>1030.556747125244</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7477363645335</v>
+        <v>858.5841840041601</v>
       </c>
       <c r="D46" t="n">
-        <v>756.4309634913042</v>
+        <v>695.2674111309308</v>
       </c>
       <c r="E46" t="n">
-        <v>590.2227576441577</v>
+        <v>529.0592052837843</v>
       </c>
       <c r="F46" t="n">
-        <v>418.3609834187181</v>
+        <v>418.3609834187182</v>
       </c>
       <c r="G46" t="n">
         <v>253.1176804253233</v>
@@ -7806,52 +7806,52 @@
         <v>49.04898484857716</v>
       </c>
       <c r="J46" t="n">
-        <v>126.2653698523719</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K46" t="n">
-        <v>220.9363877487556</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L46" t="n">
-        <v>723.3312822832323</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M46" t="n">
-        <v>1270.251894385578</v>
+        <v>1154.514044714272</v>
       </c>
       <c r="N46" t="n">
-        <v>1799.77519652674</v>
+        <v>1335.645494575532</v>
       </c>
       <c r="O46" t="n">
-        <v>2295.629291498321</v>
+        <v>1831.499589547113</v>
       </c>
       <c r="P46" t="n">
-        <v>2393.630972344878</v>
+        <v>2242.257474966978</v>
       </c>
       <c r="Q46" t="n">
         <v>2452.449242428858</v>
       </c>
       <c r="R46" t="n">
-        <v>2450.988770565093</v>
+        <v>2452.449242428858</v>
       </c>
       <c r="S46" t="n">
-        <v>2298.519169335309</v>
+        <v>2299.979641199075</v>
       </c>
       <c r="T46" t="n">
-        <v>2298.519169335309</v>
+        <v>2299.979641199075</v>
       </c>
       <c r="U46" t="n">
-        <v>2298.519169335309</v>
+        <v>2019.850483610963</v>
       </c>
       <c r="V46" t="n">
-        <v>2025.645336889623</v>
+        <v>1738.139016218992</v>
       </c>
       <c r="W46" t="n">
-        <v>1750.792933062136</v>
+        <v>1463.286612391505</v>
       </c>
       <c r="X46" t="n">
-        <v>1508.229036507941</v>
+        <v>1220.72271583731</v>
       </c>
       <c r="Y46" t="n">
-        <v>1281.886268197683</v>
+        <v>1220.72271583731</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>256.4382709420381</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>108.9901417899363</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M13" t="n">
-        <v>120.8910955478398</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>355.4735849779359</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017981</v>
+        <v>158.6891780079785</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>123.3649210763294</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>242.0634916556459</v>
+        <v>94.06963836310769</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>360.0219516362448</v>
@@ -9096,13 +9096,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>355.4735849779358</v>
+        <v>45.34488222711987</v>
       </c>
       <c r="O16" t="n">
-        <v>255.5670686505271</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>39.01535248059622</v>
+        <v>7.360890261672978</v>
       </c>
       <c r="K18" t="n">
-        <v>326.4130602513782</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>358.0675224703016</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>11.4003164923199</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M19" t="n">
         <v>354.4082905479649</v>
       </c>
       <c r="N19" t="n">
-        <v>355.4735849779359</v>
+        <v>238.4632771331221</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>66.9239275059623</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>70.37539003541775</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>298.5044852260121</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362449</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>120.8910955478401</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>355.473584977936</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017982</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.15010677908516</v>
+        <v>41.15010677908651</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9807,16 +9807,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.2477697478418</v>
       </c>
       <c r="Q25" t="n">
-        <v>27.68353027346021</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>41.15010677908514</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>17.45585845139692</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>27.68353027346051</v>
       </c>
       <c r="K28" t="n">
-        <v>176.2630045815873</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.15010677908514</v>
+        <v>41.1501067790857</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10287,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>213.784809502453</v>
+        <v>27.68353027346008</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.15010677908506</v>
+        <v>17.45585845139703</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10524,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>5.191396030272614</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>27.68353027346069</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.15010677908506</v>
+        <v>41.15010677908555</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>91.95897372584254</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
@@ -10758,13 +10758,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.71181162796663</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.15010677908506</v>
+        <v>41.15010677908555</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>27.68353027346114</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10995,13 +10995,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>80.71181162796664</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>41.15010677908469</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>17.45585845139703</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>50.77197395153559</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>91.95897372584258</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.1501067790846</v>
+        <v>41.15010677908555</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.6835302734615</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>50.14249551715045</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>309.7561984473242</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>175.1397584978533</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>128.9073711041199</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,10 +23427,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>1.198803415203685</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
         <v>135.4602252892499</v>
@@ -23469,7 +23469,7 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>323.0907413514863</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>354.1954309209792</v>
       </c>
       <c r="H14" t="n">
         <v>277.176001558223</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
@@ -23560,10 +23560,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,16 +23664,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>95.55567488033617</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.34488410179804</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>372.8637711002092</v>
       </c>
       <c r="G17" t="n">
-        <v>177.6350202228764</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458682</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23797,7 +23797,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>115.6728945938272</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>61.45960176058603</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>160.1108346549502</v>
+        <v>192.6656539986635</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
@@ -24031,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>21.06995686545257</v>
       </c>
       <c r="I22" t="n">
         <v>75.43872475250879</v>
@@ -24180,16 +24180,16 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>211.2963175181936</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>152.4601876535502</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>271.9779897930421</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.34346969091203</v>
+        <v>52.34346969091207</v>
       </c>
       <c r="T23" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>31.91979870941964</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>138.1216291696425</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.59199721635848</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.445867145127856</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>245.367402699844</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>339.6410733899909</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0584736956206</v>
+        <v>170.9670967704677</v>
       </c>
       <c r="H26" t="n">
         <v>271.9779897930421</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U26" t="n">
         <v>255.5923844622858</v>
@@ -24505,13 +24505,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.97302297326094</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.445867145127835</v>
       </c>
       <c r="S28" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>99.64648370537688</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>279.4777764189461</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.947380572719908</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>208.9229806032259</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24748,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>157.0763901276347</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5908699634609</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>133.4360114046202</v>
       </c>
       <c r="I31" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>238.3143520899697</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>417.1222074966331</v>
       </c>
       <c r="G32" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.34346969091203</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.9229806032259</v>
@@ -24979,7 +24979,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>79.28917532906547</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5908699634609</v>
+        <v>35.50553507091288</v>
       </c>
       <c r="H34" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.445867145127828</v>
+        <v>1.445867145127835</v>
       </c>
       <c r="S34" t="n">
-        <v>54.07936371568022</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>32.06562007781224</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>25.03489532296564</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>135.1322193915678</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>126.4276754174159</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.445867145127835</v>
       </c>
       <c r="S37" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.6181441030213</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25402,10 +25402,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>110.3687492116601</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>271.9779897930421</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>114.0021510097831</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>41.75962184361555</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>133.6863522464398</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.445867145127828</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.6181441030213</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>398.0584736956206</v>
       </c>
       <c r="H41" t="n">
-        <v>238.7436374065721</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>208.9436332267112</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1662387608077</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>45.93886702040022</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.445867145127821</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.6181441030213</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>3.452118847696227</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>15.23086638856868</v>
       </c>
       <c r="T44" t="n">
         <v>208.9229806032259</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>60.55191683676975</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.445867145127835</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>236.6181441030213</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>8.749258596821733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364685.6809228364</v>
+        <v>364685.6809228365</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>364685.6809228364</v>
+        <v>364685.6809228365</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435738.1276812693</v>
+        <v>435738.1276812694</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435738.1276812695</v>
+        <v>435738.1276812693</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435738.1276812694</v>
+        <v>435738.1276812695</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435738.1276812695</v>
+        <v>435738.1276812694</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>435738.1276812694</v>
+        <v>435738.1276812693</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>358598.2571328956</v>
       </c>
       <c r="C2" t="n">
-        <v>358598.2571328955</v>
+        <v>358598.2571328956</v>
       </c>
       <c r="D2" t="n">
-        <v>358605.8874841344</v>
+        <v>358605.8874841343</v>
       </c>
       <c r="E2" t="n">
         <v>192211.6033177296</v>
       </c>
       <c r="F2" t="n">
-        <v>192211.6033177297</v>
+        <v>192211.6033177296</v>
       </c>
       <c r="G2" t="n">
-        <v>192211.6033177297</v>
+        <v>192211.6033177296</v>
       </c>
       <c r="H2" t="n">
         <v>192211.6033177297</v>
@@ -26346,16 +26346,16 @@
         <v>233667.4555152181</v>
       </c>
       <c r="M2" t="n">
+        <v>233667.4555152182</v>
+      </c>
+      <c r="N2" t="n">
         <v>233667.4555152181</v>
       </c>
-      <c r="N2" t="n">
-        <v>233667.4555152182</v>
-      </c>
       <c r="O2" t="n">
-        <v>233667.4555152182</v>
+        <v>233667.4555152181</v>
       </c>
       <c r="P2" t="n">
-        <v>233667.4555152182</v>
+        <v>233667.4555152181</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>137495.0702174702</v>
+        <v>137495.0702174699</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.682089987298241e-10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>113002.0711424959</v>
+        <v>113002.0711424958</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>319793.7510853995</v>
       </c>
       <c r="D4" t="n">
-        <v>310818.0872661465</v>
+        <v>310818.0872661464</v>
       </c>
       <c r="E4" t="n">
         <v>19098.00660565759</v>
@@ -26438,7 +26438,7 @@
         <v>19098.00660565759</v>
       </c>
       <c r="I4" t="n">
-        <v>15627.57440432744</v>
+        <v>15627.57440432746</v>
       </c>
       <c r="J4" t="n">
         <v>15627.57440432745</v>
@@ -26447,19 +26447,19 @@
         <v>15627.57440432745</v>
       </c>
       <c r="L4" t="n">
-        <v>15627.57440432744</v>
+        <v>15627.57440432745</v>
       </c>
       <c r="M4" t="n">
         <v>15627.57440432745</v>
       </c>
       <c r="N4" t="n">
-        <v>15627.57440432745</v>
+        <v>15627.57440432746</v>
       </c>
       <c r="O4" t="n">
-        <v>15627.57440432744</v>
+        <v>15627.57440432746</v>
       </c>
       <c r="P4" t="n">
-        <v>15627.57440432744</v>
+        <v>15627.57440432746</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="H5" t="n">
         <v>36949.30081304156</v>
       </c>
       <c r="I5" t="n">
-        <v>49408.99443194091</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="J5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="K5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="L5" t="n">
-        <v>49408.99443194091</v>
+        <v>49408.99443194092</v>
       </c>
       <c r="M5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.99443194092</v>
       </c>
       <c r="N5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.99443194092</v>
       </c>
       <c r="O5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.99443194092</v>
       </c>
       <c r="P5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.99443194092</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5176.90604749613</v>
+        <v>5155.192405999782</v>
       </c>
       <c r="C6" t="n">
-        <v>5176.906047496013</v>
+        <v>5155.192405999782</v>
       </c>
       <c r="D6" t="n">
-        <v>-19345.20619746414</v>
+        <v>-19366.88931755552</v>
       </c>
       <c r="E6" t="n">
-        <v>-314238.1185607488</v>
+        <v>-314925.3788175057</v>
       </c>
       <c r="F6" t="n">
-        <v>136164.2958990305</v>
+        <v>135477.0356422735</v>
       </c>
       <c r="G6" t="n">
-        <v>136164.2958990305</v>
+        <v>135477.0356422735</v>
       </c>
       <c r="H6" t="n">
-        <v>136164.2958990305</v>
+        <v>135477.0356422736</v>
       </c>
       <c r="I6" t="n">
-        <v>31135.8164614796</v>
+        <v>30614.37961351281</v>
       </c>
       <c r="J6" t="n">
-        <v>168630.8866789498</v>
+        <v>168109.4498309825</v>
       </c>
       <c r="K6" t="n">
-        <v>168630.8866789497</v>
+        <v>168109.4498309828</v>
       </c>
       <c r="L6" t="n">
-        <v>168630.8866789498</v>
+        <v>168109.4498309827</v>
       </c>
       <c r="M6" t="n">
-        <v>55628.81553645391</v>
+        <v>55107.37868848697</v>
       </c>
       <c r="N6" t="n">
-        <v>168630.8866789498</v>
+        <v>168109.4498309827</v>
       </c>
       <c r="O6" t="n">
-        <v>168630.8866789498</v>
+        <v>168109.4498309826</v>
       </c>
       <c r="P6" t="n">
-        <v>168630.8866789498</v>
+        <v>168109.4498309827</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="H3" t="n">
         <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.5030250927649</v>
       </c>
       <c r="J3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.5030250927651</v>
       </c>
       <c r="K3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.5030250927651</v>
       </c>
       <c r="L3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.5030250927651</v>
       </c>
       <c r="M3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.5030250927651</v>
       </c>
       <c r="N3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.5030250927651</v>
       </c>
       <c r="O3" t="n">
-        <v>556.5030250927654</v>
+        <v>556.5030250927651</v>
       </c>
       <c r="P3" t="n">
-        <v>556.5030250927654</v>
+        <v>556.5030250927651</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>453.4520759799035</v>
@@ -26807,19 +26807,19 @@
         <v>453.4520759799035</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>613.1123106072143</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="J4" t="n">
+        <v>613.1123106072142</v>
+      </c>
+      <c r="K4" t="n">
+        <v>613.1123106072142</v>
+      </c>
+      <c r="L4" t="n">
         <v>613.1123106072145</v>
-      </c>
-      <c r="K4" t="n">
-        <v>613.1123106072145</v>
-      </c>
-      <c r="L4" t="n">
-        <v>613.1123106072143</v>
       </c>
       <c r="M4" t="n">
         <v>613.1123106072145</v>
@@ -26828,10 +26828,10 @@
         <v>613.1123106072145</v>
       </c>
       <c r="O4" t="n">
-        <v>613.1123106072146</v>
+        <v>613.1123106072145</v>
       </c>
       <c r="P4" t="n">
-        <v>613.1123106072146</v>
+        <v>613.1123106072145</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>392.0966196514721</v>
+        <v>392.096619651472</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.2546492458191</v>
+        <v>126.2546492458188</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,25 +32010,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677272</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596672</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L16" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,22 +32174,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S16" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
@@ -32247,25 +32247,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R17" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S17" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K18" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L18" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N18" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O18" t="n">
         <v>220.1856947600876</v>
@@ -32338,16 +32338,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677272</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596672</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L19" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M19" t="n">
         <v>121.6192253234244</v>
@@ -32411,22 +32411,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R19" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S19" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.237198090825185</v>
+        <v>2.237198090825184</v>
       </c>
       <c r="H23" t="n">
-        <v>22.91170494766343</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I23" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653798</v>
       </c>
       <c r="J23" t="n">
-        <v>189.8793914611742</v>
+        <v>189.8793914611741</v>
       </c>
       <c r="K23" t="n">
-        <v>284.5799866458044</v>
+        <v>284.5799866458042</v>
       </c>
       <c r="L23" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178955</v>
       </c>
       <c r="M23" t="n">
-        <v>392.8324092656081</v>
+        <v>392.8324092656079</v>
       </c>
       <c r="N23" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411649</v>
       </c>
       <c r="O23" t="n">
-        <v>376.9427098255222</v>
+        <v>376.942709825522</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582752</v>
       </c>
       <c r="Q23" t="n">
-        <v>241.5922253305984</v>
+        <v>241.5922253305982</v>
       </c>
       <c r="R23" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S23" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467893</v>
       </c>
       <c r="T23" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587247</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1789758472660148</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.197006506803306</v>
       </c>
       <c r="H24" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I24" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J24" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K24" t="n">
-        <v>193.2903007060409</v>
+        <v>193.2903007060408</v>
       </c>
       <c r="L24" t="n">
-        <v>259.9026628039372</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M24" t="n">
-        <v>303.294148675557</v>
+        <v>303.2941486755568</v>
       </c>
       <c r="N24" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110931</v>
       </c>
       <c r="O24" t="n">
-        <v>284.7982981340305</v>
+        <v>284.7982981340303</v>
       </c>
       <c r="P24" t="n">
-        <v>228.5757425140454</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q24" t="n">
         <v>152.7968305877343</v>
       </c>
       <c r="R24" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257721</v>
       </c>
       <c r="S24" t="n">
-        <v>22.23387086101754</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T24" t="n">
-        <v>4.824776226983501</v>
+        <v>4.824776226983498</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916488</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H25" t="n">
-        <v>8.922294402306964</v>
+        <v>8.922294402306958</v>
       </c>
       <c r="I25" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J25" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912184</v>
       </c>
       <c r="K25" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L25" t="n">
-        <v>149.1975487273292</v>
+        <v>149.1975487273291</v>
       </c>
       <c r="M25" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N25" t="n">
-        <v>153.5674659243692</v>
+        <v>153.5674659243691</v>
       </c>
       <c r="O25" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P25" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900749</v>
       </c>
       <c r="R25" t="n">
-        <v>45.12236003457075</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S25" t="n">
-        <v>17.48879178857099</v>
+        <v>17.48879178857098</v>
       </c>
       <c r="T25" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814087</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>22.91170494766343</v>
       </c>
       <c r="I26" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653802</v>
       </c>
       <c r="J26" t="n">
         <v>189.8793914611742</v>
@@ -32952,31 +32952,31 @@
         <v>284.5799866458044</v>
       </c>
       <c r="L26" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M26" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N26" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O26" t="n">
         <v>376.9427098255222</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q26" t="n">
         <v>241.5922253305984</v>
       </c>
       <c r="R26" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S26" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467895</v>
       </c>
       <c r="T26" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587251</v>
       </c>
       <c r="U26" t="n">
         <v>0.1789758472660148</v>
@@ -33022,7 +33022,7 @@
         <v>11.56056284202141</v>
       </c>
       <c r="I27" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809629</v>
       </c>
       <c r="J27" t="n">
         <v>113.0908647502194</v>
@@ -33037,7 +33037,7 @@
         <v>303.294148675557</v>
       </c>
       <c r="N27" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O27" t="n">
         <v>284.7982981340305</v>
@@ -33049,16 +33049,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R27" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257724</v>
       </c>
       <c r="S27" t="n">
         <v>22.23387086101754</v>
       </c>
       <c r="T27" t="n">
-        <v>4.824776226983501</v>
+        <v>4.8247762269835</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916491</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,16 +33098,16 @@
         <v>1.003530045249249</v>
       </c>
       <c r="H28" t="n">
-        <v>8.922294402306964</v>
+        <v>8.922294402306962</v>
       </c>
       <c r="I28" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076832</v>
       </c>
       <c r="J28" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912187</v>
       </c>
       <c r="K28" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L28" t="n">
         <v>149.1975487273292</v>
@@ -33119,13 +33119,13 @@
         <v>153.5674659243692</v>
       </c>
       <c r="O28" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P28" t="n">
         <v>121.3723974726909</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900754</v>
       </c>
       <c r="R28" t="n">
         <v>45.12236003457075</v>
@@ -33134,10 +33134,10 @@
         <v>17.48879178857099</v>
       </c>
       <c r="T28" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337697</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814089</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>22.91170494766343</v>
       </c>
       <c r="I29" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653802</v>
       </c>
       <c r="J29" t="n">
         <v>189.8793914611742</v>
@@ -33189,31 +33189,31 @@
         <v>284.5799866458044</v>
       </c>
       <c r="L29" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M29" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N29" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O29" t="n">
         <v>376.9427098255222</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q29" t="n">
         <v>241.5922253305984</v>
       </c>
       <c r="R29" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S29" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467895</v>
       </c>
       <c r="T29" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587251</v>
       </c>
       <c r="U29" t="n">
         <v>0.1789758472660148</v>
@@ -33259,7 +33259,7 @@
         <v>11.56056284202141</v>
       </c>
       <c r="I30" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809629</v>
       </c>
       <c r="J30" t="n">
         <v>113.0908647502194</v>
@@ -33274,7 +33274,7 @@
         <v>303.294148675557</v>
       </c>
       <c r="N30" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O30" t="n">
         <v>284.7982981340305</v>
@@ -33286,16 +33286,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R30" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257724</v>
       </c>
       <c r="S30" t="n">
         <v>22.23387086101754</v>
       </c>
       <c r="T30" t="n">
-        <v>4.824776226983501</v>
+        <v>4.8247762269835</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916491</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,16 +33335,16 @@
         <v>1.003530045249249</v>
       </c>
       <c r="H31" t="n">
-        <v>8.922294402306964</v>
+        <v>8.922294402306962</v>
       </c>
       <c r="I31" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076832</v>
       </c>
       <c r="J31" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912187</v>
       </c>
       <c r="K31" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L31" t="n">
         <v>149.1975487273292</v>
@@ -33356,13 +33356,13 @@
         <v>153.5674659243692</v>
       </c>
       <c r="O31" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P31" t="n">
         <v>121.3723974726909</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900754</v>
       </c>
       <c r="R31" t="n">
         <v>45.12236003457075</v>
@@ -33371,10 +33371,10 @@
         <v>17.48879178857099</v>
       </c>
       <c r="T31" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337697</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814089</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>22.91170494766343</v>
       </c>
       <c r="I32" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653802</v>
       </c>
       <c r="J32" t="n">
         <v>189.8793914611742</v>
@@ -33426,31 +33426,31 @@
         <v>284.5799866458044</v>
       </c>
       <c r="L32" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M32" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N32" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O32" t="n">
         <v>376.9427098255222</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q32" t="n">
         <v>241.5922253305984</v>
       </c>
       <c r="R32" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S32" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467895</v>
       </c>
       <c r="T32" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587251</v>
       </c>
       <c r="U32" t="n">
         <v>0.1789758472660148</v>
@@ -33496,7 +33496,7 @@
         <v>11.56056284202141</v>
       </c>
       <c r="I33" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809629</v>
       </c>
       <c r="J33" t="n">
         <v>113.0908647502194</v>
@@ -33511,7 +33511,7 @@
         <v>303.294148675557</v>
       </c>
       <c r="N33" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O33" t="n">
         <v>284.7982981340305</v>
@@ -33523,16 +33523,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R33" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257724</v>
       </c>
       <c r="S33" t="n">
         <v>22.23387086101754</v>
       </c>
       <c r="T33" t="n">
-        <v>4.824776226983501</v>
+        <v>4.8247762269835</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916491</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,16 +33572,16 @@
         <v>1.003530045249249</v>
       </c>
       <c r="H34" t="n">
-        <v>8.922294402306964</v>
+        <v>8.922294402306962</v>
       </c>
       <c r="I34" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076832</v>
       </c>
       <c r="J34" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912187</v>
       </c>
       <c r="K34" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L34" t="n">
         <v>149.1975487273292</v>
@@ -33593,13 +33593,13 @@
         <v>153.5674659243692</v>
       </c>
       <c r="O34" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P34" t="n">
         <v>121.3723974726909</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900754</v>
       </c>
       <c r="R34" t="n">
         <v>45.12236003457075</v>
@@ -33608,10 +33608,10 @@
         <v>17.48879178857099</v>
       </c>
       <c r="T34" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337697</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814089</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>22.91170494766343</v>
       </c>
       <c r="I35" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653802</v>
       </c>
       <c r="J35" t="n">
         <v>189.8793914611742</v>
@@ -33663,31 +33663,31 @@
         <v>284.5799866458044</v>
       </c>
       <c r="L35" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M35" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N35" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O35" t="n">
         <v>376.9427098255222</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q35" t="n">
         <v>241.5922253305984</v>
       </c>
       <c r="R35" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S35" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467895</v>
       </c>
       <c r="T35" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587251</v>
       </c>
       <c r="U35" t="n">
         <v>0.1789758472660148</v>
@@ -33733,7 +33733,7 @@
         <v>11.56056284202141</v>
       </c>
       <c r="I36" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809629</v>
       </c>
       <c r="J36" t="n">
         <v>113.0908647502194</v>
@@ -33748,7 +33748,7 @@
         <v>303.294148675557</v>
       </c>
       <c r="N36" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O36" t="n">
         <v>284.7982981340305</v>
@@ -33760,16 +33760,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R36" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257724</v>
       </c>
       <c r="S36" t="n">
         <v>22.23387086101754</v>
       </c>
       <c r="T36" t="n">
-        <v>4.824776226983501</v>
+        <v>4.8247762269835</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916491</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,16 +33809,16 @@
         <v>1.003530045249249</v>
       </c>
       <c r="H37" t="n">
-        <v>8.922294402306964</v>
+        <v>8.922294402306962</v>
       </c>
       <c r="I37" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076832</v>
       </c>
       <c r="J37" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912187</v>
       </c>
       <c r="K37" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L37" t="n">
         <v>149.1975487273292</v>
@@ -33830,13 +33830,13 @@
         <v>153.5674659243692</v>
       </c>
       <c r="O37" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P37" t="n">
         <v>121.3723974726909</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900754</v>
       </c>
       <c r="R37" t="n">
         <v>45.12236003457075</v>
@@ -33845,10 +33845,10 @@
         <v>17.48879178857099</v>
       </c>
       <c r="T37" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337697</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814089</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>22.91170494766343</v>
       </c>
       <c r="I38" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653802</v>
       </c>
       <c r="J38" t="n">
         <v>189.8793914611742</v>
@@ -33900,31 +33900,31 @@
         <v>284.5799866458044</v>
       </c>
       <c r="L38" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M38" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N38" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O38" t="n">
         <v>376.9427098255222</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q38" t="n">
         <v>241.5922253305984</v>
       </c>
       <c r="R38" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S38" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467895</v>
       </c>
       <c r="T38" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587251</v>
       </c>
       <c r="U38" t="n">
         <v>0.1789758472660148</v>
@@ -33970,7 +33970,7 @@
         <v>11.56056284202141</v>
       </c>
       <c r="I39" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809629</v>
       </c>
       <c r="J39" t="n">
         <v>113.0908647502194</v>
@@ -33985,7 +33985,7 @@
         <v>303.294148675557</v>
       </c>
       <c r="N39" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O39" t="n">
         <v>284.7982981340305</v>
@@ -33997,16 +33997,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R39" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257724</v>
       </c>
       <c r="S39" t="n">
         <v>22.23387086101754</v>
       </c>
       <c r="T39" t="n">
-        <v>4.824776226983501</v>
+        <v>4.8247762269835</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916491</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,16 +34046,16 @@
         <v>1.003530045249249</v>
       </c>
       <c r="H40" t="n">
-        <v>8.922294402306964</v>
+        <v>8.922294402306962</v>
       </c>
       <c r="I40" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076832</v>
       </c>
       <c r="J40" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912187</v>
       </c>
       <c r="K40" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L40" t="n">
         <v>149.1975487273292</v>
@@ -34067,13 +34067,13 @@
         <v>153.5674659243692</v>
       </c>
       <c r="O40" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P40" t="n">
         <v>121.3723974726909</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900754</v>
       </c>
       <c r="R40" t="n">
         <v>45.12236003457075</v>
@@ -34082,10 +34082,10 @@
         <v>17.48879178857099</v>
       </c>
       <c r="T40" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337697</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814089</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H41" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766343</v>
       </c>
       <c r="I41" t="n">
-        <v>86.24957939653805</v>
+        <v>86.24957939653802</v>
       </c>
       <c r="J41" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K41" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458044</v>
       </c>
       <c r="L41" t="n">
-        <v>353.0466377178958</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M41" t="n">
-        <v>392.8324092656082</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N41" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O41" t="n">
-        <v>376.9427098255223</v>
+        <v>376.9427098255222</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7118819582755</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q41" t="n">
         <v>241.5922253305984</v>
       </c>
       <c r="R41" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S41" t="n">
-        <v>50.98015149467897</v>
+        <v>50.98015149467895</v>
       </c>
       <c r="T41" t="n">
-        <v>9.793334642587256</v>
+        <v>9.793334642587251</v>
       </c>
       <c r="U41" t="n">
         <v>0.1789758472660148</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H42" t="n">
         <v>11.56056284202141</v>
       </c>
       <c r="I42" t="n">
-        <v>41.21272402809631</v>
+        <v>41.21272402809629</v>
       </c>
       <c r="J42" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K42" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L42" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039372</v>
       </c>
       <c r="M42" t="n">
-        <v>303.2941486755571</v>
+        <v>303.294148675557</v>
       </c>
       <c r="N42" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O42" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340305</v>
       </c>
       <c r="P42" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140454</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R42" t="n">
-        <v>74.31940399257726</v>
+        <v>74.31940399257724</v>
       </c>
       <c r="S42" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101754</v>
       </c>
       <c r="T42" t="n">
-        <v>4.824776226983502</v>
+        <v>4.8247762269835</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07875042807916495</v>
+        <v>0.07875042807916491</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>1.003530045249249</v>
       </c>
       <c r="H43" t="n">
-        <v>8.922294402306965</v>
+        <v>8.922294402306962</v>
       </c>
       <c r="I43" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076832</v>
       </c>
       <c r="J43" t="n">
-        <v>70.9495741991219</v>
+        <v>70.94957419912187</v>
       </c>
       <c r="K43" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L43" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M43" t="n">
         <v>157.3078960930254</v>
       </c>
       <c r="N43" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O43" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P43" t="n">
         <v>121.3723974726909</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.03195678900757</v>
+        <v>84.03195678900754</v>
       </c>
       <c r="R43" t="n">
-        <v>45.12236003457076</v>
+        <v>45.12236003457075</v>
       </c>
       <c r="S43" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T43" t="n">
-        <v>4.287810193337699</v>
+        <v>4.287810193337697</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814089</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H44" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766343</v>
       </c>
       <c r="I44" t="n">
-        <v>86.24957939653805</v>
+        <v>86.24957939653802</v>
       </c>
       <c r="J44" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K44" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458044</v>
       </c>
       <c r="L44" t="n">
-        <v>353.0466377178958</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M44" t="n">
-        <v>392.8324092656082</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N44" t="n">
         <v>399.1888483411651</v>
       </c>
       <c r="O44" t="n">
-        <v>376.9427098255223</v>
+        <v>376.9427098255222</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7118819582755</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q44" t="n">
         <v>241.5922253305984</v>
       </c>
       <c r="R44" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S44" t="n">
-        <v>50.98015149467897</v>
+        <v>50.98015149467895</v>
       </c>
       <c r="T44" t="n">
-        <v>9.793334642587256</v>
+        <v>9.793334642587251</v>
       </c>
       <c r="U44" t="n">
         <v>0.1789758472660148</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H45" t="n">
         <v>11.56056284202141</v>
       </c>
       <c r="I45" t="n">
-        <v>41.21272402809631</v>
+        <v>41.21272402809629</v>
       </c>
       <c r="J45" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K45" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L45" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039372</v>
       </c>
       <c r="M45" t="n">
-        <v>303.2941486755571</v>
+        <v>303.294148675557</v>
       </c>
       <c r="N45" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O45" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340305</v>
       </c>
       <c r="P45" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140454</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R45" t="n">
-        <v>74.31940399257726</v>
+        <v>74.31940399257724</v>
       </c>
       <c r="S45" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101754</v>
       </c>
       <c r="T45" t="n">
-        <v>4.824776226983502</v>
+        <v>4.8247762269835</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07875042807916495</v>
+        <v>0.07875042807916491</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>1.003530045249249</v>
       </c>
       <c r="H46" t="n">
-        <v>8.922294402306965</v>
+        <v>8.922294402306962</v>
       </c>
       <c r="I46" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076832</v>
       </c>
       <c r="J46" t="n">
-        <v>70.9495741991219</v>
+        <v>70.94957419912187</v>
       </c>
       <c r="K46" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L46" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M46" t="n">
         <v>157.3078960930254</v>
       </c>
       <c r="N46" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O46" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P46" t="n">
         <v>121.3723974726909</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.03195678900757</v>
+        <v>84.03195678900754</v>
       </c>
       <c r="R46" t="n">
-        <v>45.12236003457076</v>
+        <v>45.12236003457075</v>
       </c>
       <c r="S46" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T46" t="n">
-        <v>4.287810193337699</v>
+        <v>4.287810193337697</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814089</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
         <v>127.0390157285253</v>
@@ -35503,13 +35503,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>453.4520759799035</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
-        <v>263.9377325438278</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450199</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M13" t="n">
-        <v>219.9348809797784</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N13" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O13" t="n">
-        <v>453.4520759799035</v>
+        <v>245.8539535860839</v>
       </c>
       <c r="P13" t="n">
-        <v>71.4556647890261</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.34794198810391</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201446</v>
+        <v>15.69034674432572</v>
       </c>
       <c r="J15" t="n">
-        <v>190.1875828195911</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>453.4520759799035</v>
+        <v>305.4582226873653</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.3845535096019</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325472</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="M16" t="n">
-        <v>99.04378543193862</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4520759799035</v>
+        <v>143.3233732290875</v>
       </c>
       <c r="O16" t="n">
-        <v>342.7318442286325</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P16" t="n">
-        <v>71.45566478902612</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.2504645920424</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J17" t="n">
         <v>117.3812187638195</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35907,7 +35907,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J18" t="n">
-        <v>105.8380142238579</v>
+        <v>74.18355200493461</v>
       </c>
       <c r="K18" t="n">
-        <v>453.4520759799035</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P18" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.3845535096019</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K19" t="n">
-        <v>318.9563201597417</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>104.8304408359786</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M19" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="N19" t="n">
-        <v>453.4520759799035</v>
+        <v>336.4417681350897</v>
       </c>
       <c r="O19" t="n">
-        <v>87.16477557810539</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P19" t="n">
-        <v>71.45566478902612</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920424</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>133.7465892492239</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639431</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471202</v>
@@ -36217,7 +36217,7 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>453.4520759799036</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q21" t="n">
         <v>95.3845535096019</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055223</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325472</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L22" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>219.9348809797787</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799036</v>
+        <v>97.97849100196763</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799036</v>
+        <v>246.9192480160549</v>
       </c>
       <c r="P22" t="n">
         <v>71.45566478902612</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257448</v>
       </c>
       <c r="J23" t="n">
-        <v>160.4594319755877</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K23" t="n">
-        <v>248.8153858509951</v>
+        <v>248.8153858509949</v>
       </c>
       <c r="L23" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M23" t="n">
-        <v>355.4011463661762</v>
+        <v>355.401146366176</v>
       </c>
       <c r="N23" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067189</v>
       </c>
       <c r="O23" t="n">
-        <v>339.5517504694981</v>
+        <v>339.5517504694979</v>
       </c>
       <c r="P23" t="n">
-        <v>284.1365201480441</v>
+        <v>284.1365201480439</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R23" t="n">
-        <v>105.4997446780012</v>
+        <v>105.4997446780011</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.0403372780963</v>
+        <v>25.04033727809627</v>
       </c>
       <c r="J24" t="n">
-        <v>133.6298571959713</v>
+        <v>133.6298571959725</v>
       </c>
       <c r="K24" t="n">
-        <v>170.8910668727076</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L24" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897075</v>
       </c>
       <c r="M24" t="n">
-        <v>280.197368163229</v>
+        <v>280.1973681632288</v>
       </c>
       <c r="N24" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975514</v>
       </c>
       <c r="O24" t="n">
-        <v>261.6264084118083</v>
+        <v>261.6264084118081</v>
       </c>
       <c r="P24" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092166</v>
       </c>
       <c r="Q24" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R24" t="n">
-        <v>50.6464845984331</v>
+        <v>50.64648459843306</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>50.31281821522002</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K25" t="n">
-        <v>95.62729080442796</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L25" t="n">
         <v>507.4695904388653</v>
@@ -36527,16 +36527,16 @@
         <v>552.4450627296424</v>
       </c>
       <c r="N25" t="n">
-        <v>534.8720223648095</v>
+        <v>132.8185649487688</v>
       </c>
       <c r="O25" t="n">
-        <v>500.8627221935161</v>
+        <v>500.862722193516</v>
       </c>
       <c r="P25" t="n">
-        <v>98.99159681470442</v>
+        <v>200.2393665625461</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.09592429768281</v>
+        <v>59.41239402422255</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257452</v>
       </c>
       <c r="J26" t="n">
         <v>160.4594319755877</v>
       </c>
       <c r="K26" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L26" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852727</v>
       </c>
       <c r="M26" t="n">
         <v>355.4011463661762</v>
       </c>
       <c r="N26" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O26" t="n">
         <v>339.5517504694981</v>
       </c>
       <c r="P26" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260003</v>
       </c>
       <c r="R26" t="n">
         <v>105.4997446780012</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.0403372780963</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J27" t="n">
-        <v>133.6298571959712</v>
+        <v>92.47975041688606</v>
       </c>
       <c r="K27" t="n">
         <v>170.8910668727076</v>
       </c>
       <c r="L27" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M27" t="n">
         <v>280.197368163229</v>
       </c>
       <c r="N27" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O27" t="n">
         <v>261.6264084118083</v>
       </c>
       <c r="P27" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.0497922987558</v>
+        <v>147.5056507501527</v>
       </c>
       <c r="R27" t="n">
-        <v>50.6464845984331</v>
+        <v>50.64648459843309</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>129.0216229103926</v>
+        <v>77.99634848868051</v>
       </c>
       <c r="K28" t="n">
-        <v>271.8902953860153</v>
+        <v>95.62729080442794</v>
       </c>
       <c r="L28" t="n">
-        <v>127.278788831628</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M28" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N28" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O28" t="n">
         <v>500.8627221935161</v>
       </c>
       <c r="P28" t="n">
-        <v>98.99159681470442</v>
+        <v>98.99159681470439</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.314916628161</v>
+        <v>59.41239402422259</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257452</v>
       </c>
       <c r="J29" t="n">
         <v>160.4594319755877</v>
       </c>
       <c r="K29" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L29" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852727</v>
       </c>
       <c r="M29" t="n">
         <v>355.4011463661762</v>
       </c>
       <c r="N29" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O29" t="n">
         <v>339.5517504694981</v>
       </c>
       <c r="P29" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507259998</v>
       </c>
       <c r="R29" t="n">
-        <v>105.4997446780013</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.0403372780963</v>
+        <v>25.04033727809629</v>
       </c>
       <c r="J30" t="n">
-        <v>133.6298571959712</v>
+        <v>133.6298571959718</v>
       </c>
       <c r="K30" t="n">
         <v>170.8910668727076</v>
       </c>
       <c r="L30" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M30" t="n">
         <v>280.197368163229</v>
       </c>
       <c r="N30" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O30" t="n">
         <v>261.6264084118083</v>
       </c>
       <c r="P30" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q30" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R30" t="n">
-        <v>50.6464845984331</v>
+        <v>50.64648459843309</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>129.0216229103926</v>
+        <v>50.31281821522001</v>
       </c>
       <c r="K31" t="n">
-        <v>95.62729080442796</v>
+        <v>95.62729080442794</v>
       </c>
       <c r="L31" t="n">
         <v>507.4695904388653</v>
       </c>
       <c r="M31" t="n">
-        <v>134.7324562015396</v>
+        <v>552.4450627296424</v>
       </c>
       <c r="N31" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O31" t="n">
         <v>500.8627221935161</v>
       </c>
       <c r="P31" t="n">
-        <v>312.7764063171574</v>
+        <v>126.6751270881645</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.314916628161</v>
+        <v>59.41239402422259</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257452</v>
       </c>
       <c r="J32" t="n">
         <v>160.4594319755877</v>
       </c>
       <c r="K32" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L32" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852727</v>
       </c>
       <c r="M32" t="n">
         <v>355.4011463661762</v>
       </c>
       <c r="N32" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O32" t="n">
         <v>339.5517504694981</v>
       </c>
       <c r="P32" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260003</v>
       </c>
       <c r="R32" t="n">
         <v>105.4997446780012</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>25.0403372780963</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J33" t="n">
-        <v>92.47975041688609</v>
+        <v>92.47975041688606</v>
       </c>
       <c r="K33" t="n">
         <v>170.8910668727076</v>
       </c>
       <c r="L33" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M33" t="n">
         <v>280.197368163229</v>
       </c>
       <c r="N33" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O33" t="n">
         <v>261.6264084118083</v>
       </c>
       <c r="P33" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q33" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R33" t="n">
-        <v>91.79659137751817</v>
+        <v>68.10234304983013</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>50.31281821522002</v>
+        <v>50.31281821522001</v>
       </c>
       <c r="K34" t="n">
-        <v>345.4077040509149</v>
+        <v>95.62729080442794</v>
       </c>
       <c r="L34" t="n">
-        <v>127.278788831628</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M34" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N34" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O34" t="n">
         <v>500.8627221935161</v>
       </c>
       <c r="P34" t="n">
-        <v>104.182992844977</v>
+        <v>98.99159681470439</v>
       </c>
       <c r="Q34" t="n">
-        <v>212.314916628161</v>
+        <v>87.09592429768328</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257452</v>
       </c>
       <c r="J35" t="n">
         <v>160.4594319755877</v>
       </c>
       <c r="K35" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L35" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852727</v>
       </c>
       <c r="M35" t="n">
         <v>355.4011463661762</v>
       </c>
       <c r="N35" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O35" t="n">
         <v>339.5517504694981</v>
       </c>
       <c r="P35" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260003</v>
       </c>
       <c r="R35" t="n">
         <v>105.4997446780012</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>25.0403372780963</v>
+        <v>25.04033727809629</v>
       </c>
       <c r="J36" t="n">
-        <v>92.47975041688609</v>
+        <v>92.47975041688606</v>
       </c>
       <c r="K36" t="n">
         <v>170.8910668727076</v>
       </c>
       <c r="L36" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M36" t="n">
         <v>280.197368163229</v>
       </c>
       <c r="N36" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O36" t="n">
         <v>261.6264084118083</v>
       </c>
       <c r="P36" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q36" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R36" t="n">
-        <v>91.79659137751817</v>
+        <v>91.79659137751864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.0216229103926</v>
+        <v>50.31281821522001</v>
       </c>
       <c r="K37" t="n">
-        <v>345.4077040509149</v>
+        <v>187.5862645302705</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4695904388653</v>
+        <v>127.278788831628</v>
       </c>
       <c r="M37" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N37" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O37" t="n">
-        <v>119.3452228973512</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P37" t="n">
-        <v>98.99159681470442</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.1242056521892</v>
+        <v>59.41239402422259</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257452</v>
       </c>
       <c r="J38" t="n">
         <v>160.4594319755877</v>
       </c>
       <c r="K38" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L38" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852727</v>
       </c>
       <c r="M38" t="n">
         <v>355.4011463661762</v>
       </c>
       <c r="N38" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O38" t="n">
         <v>339.5517504694981</v>
       </c>
       <c r="P38" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260003</v>
       </c>
       <c r="R38" t="n">
         <v>105.4997446780012</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.0403372780963</v>
+        <v>25.04033727809629</v>
       </c>
       <c r="J39" t="n">
-        <v>92.47975041688609</v>
+        <v>92.47975041688606</v>
       </c>
       <c r="K39" t="n">
         <v>170.8910668727076</v>
       </c>
       <c r="L39" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M39" t="n">
         <v>280.197368163229</v>
       </c>
       <c r="N39" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O39" t="n">
         <v>261.6264084118083</v>
       </c>
       <c r="P39" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q39" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R39" t="n">
-        <v>91.79659137751817</v>
+        <v>91.79659137751864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>50.31281821522002</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K40" t="n">
-        <v>123.3108210778891</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L40" t="n">
         <v>507.4695904388653</v>
@@ -37712,16 +37712,16 @@
         <v>552.4450627296424</v>
       </c>
       <c r="N40" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O40" t="n">
-        <v>500.8627221935161</v>
+        <v>119.3452228973512</v>
       </c>
       <c r="P40" t="n">
-        <v>98.99159681470442</v>
+        <v>98.99159681470439</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.41239402422261</v>
+        <v>140.1242056521892</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>51.70167685257455</v>
+        <v>51.70167685257452</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755877</v>
       </c>
       <c r="K41" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L41" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852727</v>
       </c>
       <c r="M41" t="n">
-        <v>355.4011463661764</v>
+        <v>355.4011463661762</v>
       </c>
       <c r="N41" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O41" t="n">
-        <v>339.5517504694982</v>
+        <v>339.5517504694981</v>
       </c>
       <c r="P41" t="n">
-        <v>284.1365201480442</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260003</v>
       </c>
       <c r="R41" t="n">
         <v>105.4997446780012</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.04033727809631</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J42" t="n">
-        <v>133.6298571959708</v>
+        <v>92.47975041688606</v>
       </c>
       <c r="K42" t="n">
-        <v>170.8910668727077</v>
+        <v>170.8910668727076</v>
       </c>
       <c r="L42" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M42" t="n">
-        <v>280.1973681632291</v>
+        <v>280.197368163229</v>
       </c>
       <c r="N42" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O42" t="n">
-        <v>261.6264084118084</v>
+        <v>261.6264084118083</v>
       </c>
       <c r="P42" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R42" t="n">
-        <v>50.64648459843312</v>
+        <v>68.10234304983013</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>129.0216229103926</v>
+        <v>50.31281821522001</v>
       </c>
       <c r="K43" t="n">
-        <v>146.3992647559636</v>
+        <v>95.62729080442794</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4695904388654</v>
+        <v>219.2377625574706</v>
       </c>
       <c r="M43" t="n">
-        <v>134.7324562015396</v>
+        <v>552.4450627296424</v>
       </c>
       <c r="N43" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O43" t="n">
-        <v>500.8627221935162</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P43" t="n">
         <v>414.9069549695606</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.41239402422262</v>
+        <v>59.41239402422259</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>51.70167685257455</v>
+        <v>51.70167685257452</v>
       </c>
       <c r="J44" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755877</v>
       </c>
       <c r="K44" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L44" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852727</v>
       </c>
       <c r="M44" t="n">
-        <v>355.4011463661764</v>
+        <v>355.4011463661762</v>
       </c>
       <c r="N44" t="n">
         <v>361.9092255067191</v>
       </c>
       <c r="O44" t="n">
-        <v>339.5517504694982</v>
+        <v>339.5517504694981</v>
       </c>
       <c r="P44" t="n">
-        <v>284.1365201480442</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260003</v>
       </c>
       <c r="R44" t="n">
         <v>105.4997446780012</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.04033727809631</v>
+        <v>25.04033727809629</v>
       </c>
       <c r="J45" t="n">
-        <v>92.47975041688611</v>
+        <v>92.47975041688606</v>
       </c>
       <c r="K45" t="n">
-        <v>170.8910668727077</v>
+        <v>170.8910668727076</v>
       </c>
       <c r="L45" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M45" t="n">
-        <v>280.1973681632291</v>
+        <v>280.197368163229</v>
       </c>
       <c r="N45" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O45" t="n">
-        <v>261.6264084118084</v>
+        <v>261.6264084118083</v>
       </c>
       <c r="P45" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R45" t="n">
-        <v>91.79659137751771</v>
+        <v>91.79659137751864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>77.99634848868153</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K46" t="n">
-        <v>95.62729080442799</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4695904388654</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M46" t="n">
-        <v>552.4450627296424</v>
+        <v>134.7324562015395</v>
       </c>
       <c r="N46" t="n">
-        <v>534.8720223648095</v>
+        <v>182.9610604659193</v>
       </c>
       <c r="O46" t="n">
-        <v>500.8627221935162</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P46" t="n">
-        <v>98.99159681470445</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.41239402422262</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
